--- a/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
+++ b/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D09CEC19-5347-47B6-9A34-D24ECE8A3843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD464C-3DDD-4BD6-B0C2-9AAD3D9DDD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20520" yWindow="4500" windowWidth="20640" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Colunas" sheetId="1" r:id="rId1"/>
-    <sheet name="Linhas" sheetId="2" r:id="rId2"/>
+    <sheet name="Tudo" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
   <si>
     <t>Column</t>
   </si>
@@ -103,9 +102,6 @@
   </si>
   <si>
     <t>&lt;&lt;&lt;(512,1,1),(2,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>Row</t>
   </si>
   <si>
     <t>blockDimY</t>
@@ -278,6 +274,9 @@
   <si>
     <t>5,0,0,5</t>
   </si>
+  <si>
+    <t>CPU Kernel -&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -286,7 +285,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000E+00"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,8 +315,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Abadi"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -358,6 +364,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -508,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -542,7 +554,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -654,45 +665,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="96">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -703,91 +745,246 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border outline="0">
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1045,302 +1242,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2741,7 +2642,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$4:$A$14</c:f>
+              <c:f>Tudo!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2783,7 +2684,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$J$4:$J$14</c:f>
+              <c:f>Tudo!$J$4:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2954,7 +2855,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$4:$A$14</c:f>
+              <c:f>Tudo!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2996,7 +2897,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$M$4:$M$14</c:f>
+              <c:f>Tudo!$M$4:$M$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3480,7 +3381,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$4:$A$14</c:f>
+              <c:f>Tudo!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3522,7 +3423,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$J$36:$J$46</c:f>
+              <c:f>Tudo!$J$38:$J$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3693,7 +3594,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>Colunas!$A$4:$A$14</c:f>
+              <c:f>Tudo!$A$4:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3735,7 +3636,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$M$36:$M$46</c:f>
+              <c:f>Tudo!$M$38:$M$48</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4101,7 +4002,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$16</c:f>
+              <c:f>Tudo!$K$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4228,7 +4129,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$A$17:$A$22</c:f>
+              <c:f>Tudo!$A$17:$A$22</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4254,7 +4155,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$17:$K$22</c:f>
+              <c:f>Tudo!$K$17:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -4577,7 +4478,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$24</c:f>
+              <c:f>Tudo!$K$26</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4704,7 +4605,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$A$25:$A$30</c:f>
+              <c:f>Tudo!$A$27:$A$32</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -4730,7 +4631,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$25:$K$30</c:f>
+              <c:f>Tudo!$K$27:$K$32</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="6"/>
@@ -5052,7 +4953,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$48</c:f>
+              <c:f>Tudo!$K$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5156,7 +5057,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$A$49:$A$52</c:f>
+              <c:f>Tudo!$A$51:$A$54</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -5176,9 +5077,9 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$49:$K$52</c:f>
+              <c:f>Tudo!$K$51:$K$54</c:f>
               <c:numCache>
-                <c:formatCode>0.0000E+00</c:formatCode>
+                <c:formatCode>0\.0000E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8.1566E-2</c:v>
@@ -5302,7 +5203,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
+        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5485,7 +5386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Colunas!$K$55</c:f>
+              <c:f>Tudo!$K$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5589,7 +5490,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Colunas!$A$56:$A$63</c:f>
+              <c:f>Tudo!$A$59:$A$66</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5621,7 +5522,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Colunas!$K$56:$K$63</c:f>
+              <c:f>Tudo!$K$59:$K$66</c:f>
               <c:numCache>
                 <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="8"/>
@@ -9072,15 +8973,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>132828</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138544</xdr:rowOff>
+      <xdr:colOff>235000</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>237258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>13855</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:colOff>183573</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>118300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9108,15 +9009,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>221096</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>13856</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>69272</xdr:rowOff>
+      <xdr:colOff>183574</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9146,15 +9047,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>148591</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>155863</xdr:rowOff>
+      <xdr:colOff>285443</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>105640</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>256310</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>34637</xdr:rowOff>
+      <xdr:colOff>426028</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>112846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9183,16 +9084,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>526472</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>53674</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>116031</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>32211</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>44213</xdr:rowOff>
+      <xdr:colOff>201929</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9222,15 +9123,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>138546</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>166254</xdr:rowOff>
+      <xdr:colOff>275398</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>246265</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>3465</xdr:rowOff>
+      <xdr:colOff>415983</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>183536</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9259,16 +9160,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>532409</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>59661</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>33401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>30528</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>33154</xdr:rowOff>
+      <xdr:colOff>200246</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>22615</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9299,27 +9200,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="114"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="113"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="112"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="111"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="110"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="109">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="90"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="89"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="88"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="87"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="86"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="85">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="108">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="84">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="107">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="83">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="106">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="82">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9328,22 +9229,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C97:L108" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104">
-  <autoFilter ref="C97:L108" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C100:L111" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
+  <autoFilter ref="C100:L111" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="103"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="102"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="101"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="100"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="99"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="98"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="97"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="96"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="95">
-      <calculatedColumnFormula>AVERAGE(F98:J98)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="78"/>
+    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="76"/>
+    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="75"/>
+    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="74"/>
+    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="73"/>
+    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="72"/>
+    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="71">
+      <calculatedColumnFormula>AVERAGE(F101:J101)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="94">
-      <calculatedColumnFormula>STDEV(F98:J98)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="70">
+      <calculatedColumnFormula>STDEV(F101:J101)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9351,25 +9252,25 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="93" dataDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="blockDimX" dataDxfId="90"/>
-    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimY" dataDxfId="89"/>
-    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="88"/>
-    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="87"/>
-    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="86"/>
-    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="85"/>
-    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="84"/>
-    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="83"/>
-    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media" dataDxfId="82">
+    <tableColumn id="1" xr3:uid="{52E6AFB4-5DF1-47BD-9568-3B299002770C}" name="gridDimX" dataDxfId="67"/>
+    <tableColumn id="2" xr3:uid="{B60B7410-FADE-4250-905C-FD042699A4D9}" name="blockDimX" dataDxfId="66"/>
+    <tableColumn id="3" xr3:uid="{A85E00EB-F6EF-45A3-B443-FFFF0BEA471D}" name="blockDimY" dataDxfId="65"/>
+    <tableColumn id="4" xr3:uid="{DBFB7FBC-E871-4AC4-AC2A-D469262040A1}" name="Cuda Kernel" dataDxfId="64"/>
+    <tableColumn id="5" xr3:uid="{2172D3BF-AE72-473C-9641-FDB4A1680270}" name="1º " dataDxfId="63"/>
+    <tableColumn id="6" xr3:uid="{2B701978-FCA1-4C82-9D9B-DE022FB4A4FF}" name="2º" dataDxfId="62"/>
+    <tableColumn id="7" xr3:uid="{6DA80BDC-4444-40AB-A685-82DAC3912666}" name="3º" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{038A9259-EC36-4014-A0B2-0F26E0672A32}" name="4º" dataDxfId="60"/>
+    <tableColumn id="9" xr3:uid="{C2163FB8-415E-49C3-8BA1-0EC46171FBF3}" name="5º" dataDxfId="59"/>
+    <tableColumn id="10" xr3:uid="{DE062FC4-CCA3-4157-AD17-BD34AAB63B56}" name="Media" dataDxfId="58">
       <calculatedColumnFormula>AVERAGE(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao" dataDxfId="81">
+    <tableColumn id="11" xr3:uid="{98658D6C-7C17-4CB3-B7A4-9A219E991DF4}" name="Desvio Padrao" dataDxfId="57">
       <calculatedColumnFormula>STDEV(F17:J17)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="80">
+    <tableColumn id="12" xr3:uid="{48060F8B-9519-4243-A151-D5212C9BDD42}" name="Coef" dataDxfId="56">
       <calculatedColumnFormula>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9378,25 +9279,25 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B24:M30" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
-  <autoFilter ref="B24:M30" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B26:M32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="B26:M32" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="77"/>
-    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="gridDimY" dataDxfId="76"/>
-    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX2" dataDxfId="75"/>
-    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="74"/>
-    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="73"/>
-    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="72"/>
-    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="71"/>
-    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="70"/>
-    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="69"/>
-    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media" dataDxfId="68">
-      <calculatedColumnFormula>AVERAGE(F25:J25)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{D314A26A-776E-45AB-B97C-7B4CCD10C6FF}" name="gridDimX" dataDxfId="53"/>
+    <tableColumn id="2" xr3:uid="{327AC6DC-C1F5-48BB-87F3-B8A02C7E2686}" name="gridDimY" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{021914CB-903B-46D1-8C0C-D57FF48C53D2}" name="blockDimX2" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{22CF2BAA-EAE0-40FD-924F-104AA7269971}" name="Cuda Kernel" dataDxfId="50"/>
+    <tableColumn id="5" xr3:uid="{559B6EDE-E5F1-4467-9BB6-56E53367D8CD}" name="1º " dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{5A68E55B-82E9-48A4-88E3-1AEE8F151CAC}" name="2º" dataDxfId="48"/>
+    <tableColumn id="7" xr3:uid="{BD5633D2-A4BE-46EB-92DC-4B5C8E36B953}" name="3º" dataDxfId="47"/>
+    <tableColumn id="8" xr3:uid="{716DB042-307B-4AC2-83FC-424454FD69CD}" name="4º" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{71CE32D6-C326-404D-9201-6899B768CA45}" name="5º" dataDxfId="45"/>
+    <tableColumn id="10" xr3:uid="{0DBD358B-300C-4033-AA0E-A3DCB21D8500}" name="Media" dataDxfId="44">
+      <calculatedColumnFormula>AVERAGE(F27:J27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao" dataDxfId="67">
-      <calculatedColumnFormula>STDEV(F25:J25)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{E3982694-B84F-468F-8E7A-C71D6B7CBE65}" name="Desvio Padrao" dataDxfId="43">
+      <calculatedColumnFormula>STDEV(F27:J27)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="66">
+    <tableColumn id="12" xr3:uid="{45C0EDE9-14CC-4827-833A-038644AD1D14}" name="Coef" dataDxfId="42">
       <calculatedColumnFormula>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9405,28 +9306,28 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B35:M46" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
-  <autoFilter ref="B35:M46" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B37:M48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+  <autoFilter ref="B37:M48" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="60"/>
-    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="59"/>
-    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="58"/>
-    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="57"/>
-    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="56"/>
-    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="55">
-      <calculatedColumnFormula>AVERAGE(E36:I36)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{388DE001-89BA-417E-B7EF-7A0BECF6E67D}" name="gridDimX" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{D648D2C6-DD68-4C3F-9213-97BEDE7270EC}" name="blockDimX2" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{65C6110F-6C96-4499-A0D3-52D5B3BAC0A4}" name="Cuda Kernel" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{891A908C-D473-4397-A84B-774BF1B3D63F}" name="1º " dataDxfId="36"/>
+    <tableColumn id="5" xr3:uid="{0A8CA49E-ADD6-4811-BA9A-4DF6C1DE7825}" name="2º" dataDxfId="35"/>
+    <tableColumn id="6" xr3:uid="{B74082CB-C724-4E93-A0D3-B6DCA9273989}" name="3º" dataDxfId="34"/>
+    <tableColumn id="7" xr3:uid="{54F448C8-ECFC-473A-BEE4-96E23DAC0F3B}" name="4º" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{850D29A6-7DF0-4D99-8BA8-FDAD97B3836A}" name="5º" dataDxfId="32"/>
+    <tableColumn id="9" xr3:uid="{D9466A68-3B98-471D-BCE1-46483F4DD230}" name="Media" dataDxfId="31">
+      <calculatedColumnFormula>AVERAGE(E38:I38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="54">
-      <calculatedColumnFormula>STDEV(E36:I36)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{8F6954B4-A278-48CA-B49D-589E58277D00}" name="Desvio Padrao" dataDxfId="30">
+      <calculatedColumnFormula>STDEV(E38:I38)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="53">
+    <tableColumn id="11" xr3:uid="{FF159FCA-34A1-4421-84FE-AD47693752C1}" name="Coef" dataDxfId="29">
       <calculatedColumnFormula>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="52">
-      <calculatedColumnFormula>AVERAGE(H36:L36)</calculatedColumnFormula>
+    <tableColumn id="12" xr3:uid="{7E3C1865-17A5-4961-ABD3-74B22DEB0342}" name="Teorica" dataDxfId="28">
+      <calculatedColumnFormula>AVERAGE(H38:L38)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9434,25 +9335,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B48:M52" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50">
-  <autoFilter ref="B48:M52" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B50:M54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="B50:M54" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="44"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="40">
-      <calculatedColumnFormula>AVERAGE(F49:J49)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="2">
+      <calculatedColumnFormula>AVERAGE(F51:J51)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="39">
-      <calculatedColumnFormula>STDEV(F49:J49)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="1">
+      <calculatedColumnFormula>STDEV(F51:J51)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="38">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="0">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9461,72 +9362,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B55:M63" totalsRowShown="0" headerRowDxfId="37" dataDxfId="36">
-  <autoFilter ref="B55:M63" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B58:M66" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+  <autoFilter ref="B58:M66" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="28"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="27"/>
-    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="26">
-      <calculatedColumnFormula>AVERAGE(F56:J56)</calculatedColumnFormula>
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="25"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="16">
+      <calculatedColumnFormula>AVERAGE(F59:J59)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="25">
-      <calculatedColumnFormula>STDEV(F56:J56)</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="15">
+      <calculatedColumnFormula>STDEV(F59:J59)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="24">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="14">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}" name="Tabela6" displayName="Tabela6" ref="E4:N15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="E4:N15" xr:uid="{C4BDEC98-048A-41C3-9600-257826FE637A}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{8F97CC66-24FB-44F5-A370-383AF407BA62}" name="gridDimX" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{97B78A84-BCA7-4DFA-A177-A048B25373A3}" name="blockDimX2" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{1D9AE1D5-3FEF-491C-844D-5EAC3F5575D9}" name="Cuda Kernel" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{F8DAA291-A4D4-47AC-A138-F08945C6EC17}" name="1º " dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{B082E383-C01D-4440-96F9-08FF57731764}" name="2º" dataDxfId="17"/>
-    <tableColumn id="6" xr3:uid="{5C67B0F9-7FE6-4611-B4CB-E667C16968E8}" name="3º" dataDxfId="16"/>
-    <tableColumn id="7" xr3:uid="{2673E548-A356-4007-86E9-82092FAD0941}" name="4º" dataDxfId="15"/>
-    <tableColumn id="8" xr3:uid="{1DFCE80B-445A-46C6-96D5-22AFD0947C3C}" name="5º" dataDxfId="14"/>
-    <tableColumn id="9" xr3:uid="{36F6B6F2-37F0-4E9C-B997-EBB3FCC21F8E}" name="Media" dataDxfId="13">
-      <calculatedColumnFormula>AVERAGE(H5:L5)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{73A090F1-E46D-4C38-A71C-F948FD646066}" name="Desvio Padrao" dataDxfId="12">
-      <calculatedColumnFormula>STDEV(H5:L5)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}" name="Tabela7" displayName="Tabela7" ref="E18:N29" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="E18:N29" xr:uid="{98392A67-6EED-446B-9173-38FE0E72E529}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{1BB353E0-9AF2-4592-9468-44F298D46DD1}" name="gridDimX" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{C638798C-4E4E-4C13-9F16-0A8CFEA63919}" name="blockDimX2" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{93376937-EB3C-40D4-AF4B-EDC46A2822C1}" name="Cuda Kernel" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{6E8C9373-2253-4422-857F-BAE20575B3E9}" name="1º " dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{A132DC22-ED28-495A-B0BB-BF6B9CCE3C58}" name="2º" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{08528A78-1570-40A8-B01B-99C3249A48C6}" name="3º" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{B80DD6A3-A55B-40C2-AA99-A35DFC438D20}" name="4º" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{7ACC0343-8EFF-4821-ABA0-727221996F3B}" name="5º" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{F34863BD-7004-4562-9C0C-3D2BF350EDA1}" name="Media" dataDxfId="1">
-      <calculatedColumnFormula>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{05F5711A-CE65-4A09-B77B-AFA8CFD980EE}" name="Desvio Padrao" dataDxfId="0">
-      <calculatedColumnFormula>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -9796,10 +9651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P108"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AF57" sqref="AF57"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z69" sqref="Z69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9819,31 +9674,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="31"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="48"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -9874,10 +9729,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="M3" s="31" t="s">
+        <v>38</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -9886,7 +9741,7 @@
         <f t="shared" ref="A4:A14" si="0">2^C4</f>
         <v>1</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="32">
         <v>10</v>
       </c>
       <c r="C4" s="1">
@@ -9923,7 +9778,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.134338687871143</v>
       </c>
-      <c r="M4" s="34">
+      <c r="M4" s="33">
         <v>0.23582</v>
       </c>
       <c r="N4" s="1"/>
@@ -9971,7 +9826,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>17.796286359016303</v>
       </c>
-      <c r="M5" s="34">
+      <c r="M5" s="33">
         <f>M4/2</f>
         <v>0.11791</v>
       </c>
@@ -9983,7 +9838,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="32">
         <v>8</v>
       </c>
       <c r="C6" s="1">
@@ -10019,7 +9874,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>15.62628001166753</v>
       </c>
-      <c r="M6" s="34">
+      <c r="M6" s="33">
         <f t="shared" ref="M6:M9" si="3">M5/2</f>
         <v>5.8955E-2</v>
       </c>
@@ -10067,7 +9922,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>59.723550624918751</v>
       </c>
-      <c r="M7" s="34">
+      <c r="M7" s="33">
         <f t="shared" si="3"/>
         <v>2.94775E-2</v>
       </c>
@@ -10079,7 +9934,7 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="32">
         <v>6</v>
       </c>
       <c r="C8" s="1">
@@ -10115,7 +9970,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>140.63392523394177</v>
       </c>
-      <c r="M8" s="34">
+      <c r="M8" s="33">
         <f t="shared" si="3"/>
         <v>1.473875E-2</v>
       </c>
@@ -10127,43 +9982,43 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B9" s="27">
+      <c r="B9" s="26">
         <v>5</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="23">
         <v>5</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="34">
         <v>0.1431</v>
       </c>
-      <c r="F9" s="35">
+      <c r="F9" s="34">
         <v>0.1431</v>
       </c>
-      <c r="G9" s="35">
+      <c r="G9" s="34">
         <v>0.14249999999999999</v>
       </c>
-      <c r="H9" s="35">
+      <c r="H9" s="34">
         <v>0.1434</v>
       </c>
-      <c r="I9" s="35">
+      <c r="I9" s="34">
         <v>0.14230000000000001</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="34">
         <f t="shared" si="1"/>
         <v>0.14287999999999998</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="34">
         <f t="shared" si="2"/>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="L9" s="35">
+      <c r="L9" s="34">
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
-      <c r="M9" s="34">
+      <c r="M9" s="33">
         <f t="shared" si="3"/>
         <v>7.3693750000000001E-3</v>
       </c>
@@ -10175,7 +10030,7 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="32">
         <v>4</v>
       </c>
       <c r="C10" s="1">
@@ -10211,7 +10066,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>46.494412960309788</v>
       </c>
-      <c r="M10" s="34">
+      <c r="M10" s="33">
         <f>0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
@@ -10259,7 +10114,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>65.188008387366182</v>
       </c>
-      <c r="M11" s="34">
+      <c r="M11" s="33">
         <f t="shared" ref="M11:M14" si="4">0.0073694</f>
         <v>7.3693999999999999E-3</v>
       </c>
@@ -10271,7 +10126,7 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="32">
         <v>2</v>
       </c>
       <c r="C12" s="1">
@@ -10307,7 +10162,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>42.534565109646636</v>
       </c>
-      <c r="M12" s="34">
+      <c r="M12" s="33">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
@@ -10355,7 +10210,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>56.574893584264082</v>
       </c>
-      <c r="M13" s="34">
+      <c r="M13" s="33">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
@@ -10367,7 +10222,7 @@
         <f t="shared" si="0"/>
         <v>1024</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="32">
         <v>0</v>
       </c>
       <c r="C14" s="1">
@@ -10403,7 +10258,7 @@
         <f>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</f>
         <v>186.55337011910066</v>
       </c>
-      <c r="M14" s="34">
+      <c r="M14" s="33">
         <f t="shared" si="4"/>
         <v>7.3693999999999999E-3</v>
       </c>
@@ -10431,11 +10286,11 @@
       <c r="B16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>23</v>
+      <c r="D16" s="15" t="s">
+        <v>22</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>10</v>
@@ -10461,51 +10316,51 @@
       <c r="L16" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>37</v>
+      <c r="M16" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B17" s="27">
+        <v>73</v>
+      </c>
+      <c r="B17" s="26">
         <v>5</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="23">
         <v>5</v>
       </c>
-      <c r="D17" s="17">
+      <c r="D17" s="16">
         <v>0</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="35">
+      <c r="F17" s="34">
         <v>0.1431</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G17" s="34">
         <v>0.1431</v>
       </c>
-      <c r="H17" s="35">
+      <c r="H17" s="34">
         <v>0.14249999999999999</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I17" s="34">
         <v>0.1434</v>
       </c>
-      <c r="J17" s="35">
+      <c r="J17" s="34">
         <v>0.14230000000000001</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="35">
         <f t="shared" ref="K17:K22" si="5">AVERAGE(F17:J17)</f>
         <v>0.14287999999999998</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="35">
         <f t="shared" ref="L17:L22" si="6">STDEV(F17:J17)</f>
         <v>4.6043457732885401E-4</v>
       </c>
-      <c r="M17" s="37">
+      <c r="M17" s="36">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>310.31553022993637</v>
       </c>
@@ -10513,19 +10368,19 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>4</v>
       </c>
-      <c r="D18" s="18">
+      <c r="D18" s="17">
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F18" s="4">
         <v>0.15989999999999999</v>
@@ -10542,15 +10397,15 @@
       <c r="J18" s="4">
         <v>0.16059999999999999</v>
       </c>
-      <c r="K18" s="38">
+      <c r="K18" s="37">
         <f t="shared" si="5"/>
         <v>0.16064000000000001</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="37">
         <f t="shared" si="6"/>
         <v>6.8774995456198206E-4</v>
       </c>
-      <c r="M18" s="39">
+      <c r="M18" s="38">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>233.57326152396374</v>
       </c>
@@ -10558,19 +10413,19 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
       </c>
-      <c r="C19" s="25">
+      <c r="C19" s="24">
         <v>3</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="17">
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="4">
         <v>0.1608</v>
@@ -10587,15 +10442,15 @@
       <c r="J19" s="4">
         <v>0.15989999999999999</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="39">
         <f t="shared" si="5"/>
         <v>0.16004000000000002</v>
       </c>
-      <c r="L19" s="40">
+      <c r="L19" s="39">
         <f t="shared" si="6"/>
         <v>1.0644247272588116E-3</v>
       </c>
-      <c r="M19" s="41">
+      <c r="M19" s="40">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>150.35351575507582</v>
       </c>
@@ -10603,19 +10458,19 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
       </c>
-      <c r="C20" s="25">
+      <c r="C20" s="24">
         <v>2</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="17">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="4">
         <v>0.16009999999999999</v>
@@ -10632,15 +10487,15 @@
       <c r="J20" s="4">
         <v>0.15959999999999999</v>
       </c>
-      <c r="K20" s="38">
+      <c r="K20" s="37">
         <f t="shared" si="5"/>
         <v>0.15951999999999997</v>
       </c>
-      <c r="L20" s="38">
+      <c r="L20" s="37">
         <f t="shared" si="6"/>
         <v>5.1185935568278176E-4</v>
       </c>
-      <c r="M20" s="39">
+      <c r="M20" s="38">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>311.64810846763231</v>
       </c>
@@ -10648,19 +10503,19 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>1</v>
       </c>
-      <c r="D21" s="18">
+      <c r="D21" s="17">
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F21" s="4">
         <v>0.1714</v>
@@ -10677,15 +10532,15 @@
       <c r="J21" s="4">
         <v>0.17080000000000001</v>
       </c>
-      <c r="K21" s="40">
+      <c r="K21" s="39">
         <f t="shared" si="5"/>
         <v>0.17078000000000002</v>
       </c>
-      <c r="L21" s="40">
+      <c r="L21" s="39">
         <f t="shared" si="6"/>
         <v>4.9193495504995673E-4</v>
       </c>
-      <c r="M21" s="41">
+      <c r="M21" s="40">
         <f>Tabela1[[#This Row],[Media]]/Tabela1[[#This Row],[Desvio Padrao]]</f>
         <v>347.15971745219252</v>
       </c>
@@ -10693,19 +10548,19 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
       </c>
-      <c r="C22" s="25">
+      <c r="C22" s="24">
         <v>0</v>
       </c>
-      <c r="D22" s="22">
+      <c r="D22" s="21">
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" s="4">
         <v>0.1983</v>
@@ -10738,766 +10593,733 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="3"/>
+      <c r="M23" s="5"/>
       <c r="N23" s="1"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J24" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K24" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L24" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M24" s="15" t="s">
-        <v>37</v>
+      <c r="B24" s="2"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="54">
+        <v>9.4459999999999997</v>
+      </c>
+      <c r="G24" s="54">
+        <v>9.4540000000000006</v>
+      </c>
+      <c r="H24" s="54">
+        <v>9.3810000000000002</v>
+      </c>
+      <c r="I24" s="54">
+        <v>9.5470000000000006</v>
+      </c>
+      <c r="J24" s="54">
+        <v>9.4700000000000006</v>
+      </c>
+      <c r="K24" s="55">
+        <f>AVERAGE(F24:J24)</f>
+        <v>9.4596</v>
+      </c>
+      <c r="L24" s="55">
+        <f>AVERAGE(G24:K24)</f>
+        <v>9.4623200000000018</v>
+      </c>
+      <c r="M24" s="56">
+        <f>K24/L24</f>
+        <v>0.99971254406953036</v>
       </c>
       <c r="N24" s="1"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="27">
-        <v>5</v>
-      </c>
-      <c r="C25" s="24">
-        <v>0</v>
-      </c>
-      <c r="D25" s="24">
-        <v>5</v>
-      </c>
-      <c r="E25" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="F25" s="35">
-        <v>0.1431</v>
-      </c>
-      <c r="G25" s="35">
-        <v>0.1431</v>
-      </c>
-      <c r="H25" s="35">
-        <v>0.14249999999999999</v>
-      </c>
-      <c r="I25" s="35">
-        <v>0.1434</v>
-      </c>
-      <c r="J25" s="35">
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="K25" s="36">
-        <f t="shared" ref="K25" si="7">AVERAGE(F25:J25)</f>
-        <v>0.14287999999999998</v>
-      </c>
-      <c r="L25" s="36">
-        <f t="shared" ref="L25" si="8">STDEV(F25:J25)</f>
-        <v>4.6043457732885401E-4</v>
-      </c>
-      <c r="M25" s="37">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>310.31553022993637</v>
-      </c>
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="3"/>
       <c r="N25" s="1"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="A26" s="1"/>
+      <c r="B26" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="25">
+      <c r="C26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K26" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
-        <v>5</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26" s="4">
-        <v>0.1429</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="H26" s="4">
-        <v>0.1431</v>
-      </c>
-      <c r="I26" s="4">
-        <v>0.14280000000000001</v>
-      </c>
-      <c r="J26" s="4">
-        <v>0.14149999999999999</v>
-      </c>
-      <c r="K26" s="38">
-        <f t="shared" ref="K26:K30" si="9">AVERAGE(F26:J26)</f>
-        <v>0.14265999999999998</v>
-      </c>
-      <c r="L26" s="38">
-        <f t="shared" ref="L26:L30" si="10">STDEV(F26:J26)</f>
-        <v>6.5802735505448965E-4</v>
-      </c>
-      <c r="M26" s="39">
-        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>216.79949762603206</v>
+      <c r="L26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="28">
-        <v>3</v>
-      </c>
-      <c r="C27" s="25">
-        <v>2</v>
-      </c>
-      <c r="D27" s="12">
+        <v>73</v>
+      </c>
+      <c r="B27" s="26">
         <v>5</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="4">
-        <v>0.1429</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.1414</v>
-      </c>
-      <c r="H27" s="4">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="I27" s="4">
+      <c r="C27" s="23">
+        <v>0</v>
+      </c>
+      <c r="D27" s="23">
+        <v>5</v>
+      </c>
+      <c r="E27" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" s="34">
+        <v>0.1431</v>
+      </c>
+      <c r="G27" s="34">
+        <v>0.1431</v>
+      </c>
+      <c r="H27" s="34">
+        <v>0.14249999999999999</v>
+      </c>
+      <c r="I27" s="34">
+        <v>0.1434</v>
+      </c>
+      <c r="J27" s="34">
         <v>0.14230000000000001</v>
       </c>
-      <c r="J27" s="4">
-        <v>0.1431</v>
-      </c>
-      <c r="K27" s="40">
-        <f t="shared" si="9"/>
-        <v>0.14230000000000001</v>
-      </c>
-      <c r="L27" s="40">
-        <f t="shared" si="10"/>
-        <v>7.1763500472036645E-4</v>
-      </c>
-      <c r="M27" s="41">
+      <c r="K27" s="35">
+        <f t="shared" ref="K27" si="7">AVERAGE(F27:J27)</f>
+        <v>0.14287999999999998</v>
+      </c>
+      <c r="L27" s="35">
+        <f t="shared" ref="L27" si="8">STDEV(F27:J27)</f>
+        <v>4.6043457732885401E-4</v>
+      </c>
+      <c r="M27" s="36">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>198.29021586739432</v>
-      </c>
+        <v>310.31553022993637</v>
+      </c>
+      <c r="N27" s="1"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="28">
-        <v>2</v>
-      </c>
-      <c r="C28" s="25">
-        <v>3</v>
+        <v>74</v>
+      </c>
+      <c r="B28" s="27">
+        <v>4</v>
+      </c>
+      <c r="C28" s="24">
+        <v>1</v>
       </c>
       <c r="D28" s="1">
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F28" s="4">
-        <v>0.14319999999999999</v>
+        <v>0.1429</v>
       </c>
       <c r="G28" s="4">
-        <v>0.1429</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="H28" s="4">
-        <v>0.14299999999999999</v>
+        <v>0.1431</v>
       </c>
       <c r="I28" s="4">
-        <v>0.14319999999999999</v>
+        <v>0.14280000000000001</v>
       </c>
       <c r="J28" s="4">
-        <v>0.14299999999999999</v>
-      </c>
-      <c r="K28" s="38">
-        <f t="shared" si="9"/>
-        <v>0.14306000000000002</v>
-      </c>
-      <c r="L28" s="38">
-        <f t="shared" si="10"/>
-        <v>1.3416407864998709E-4</v>
-      </c>
-      <c r="M28" s="39">
+        <v>0.14149999999999999</v>
+      </c>
+      <c r="K28" s="37">
+        <f t="shared" ref="K28:K32" si="9">AVERAGE(F28:J28)</f>
+        <v>0.14265999999999998</v>
+      </c>
+      <c r="L28" s="37">
+        <f t="shared" ref="L28:L32" si="10">STDEV(F28:J28)</f>
+        <v>6.5802735505448965E-4</v>
+      </c>
+      <c r="M28" s="38">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
-        <v>1066.3062828704021</v>
-      </c>
+        <v>216.79949762603206</v>
+      </c>
+      <c r="N28" s="1"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B29" s="28">
-        <v>1</v>
-      </c>
-      <c r="C29" s="25">
-        <v>4</v>
+        <v>75</v>
+      </c>
+      <c r="B29" s="27">
+        <v>3</v>
+      </c>
+      <c r="C29" s="24">
+        <v>2</v>
       </c>
       <c r="D29" s="12">
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F29" s="4">
+        <v>0.1429</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.1414</v>
+      </c>
+      <c r="H29" s="4">
+        <v>0.14180000000000001</v>
+      </c>
+      <c r="I29" s="4">
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="J29" s="4">
         <v>0.1431</v>
       </c>
-      <c r="G29" s="4">
+      <c r="K29" s="39">
+        <f t="shared" si="9"/>
+        <v>0.14230000000000001</v>
+      </c>
+      <c r="L29" s="39">
+        <f t="shared" si="10"/>
+        <v>7.1763500472036645E-4</v>
+      </c>
+      <c r="M29" s="40">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>198.29021586739432</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="27">
+        <v>2</v>
+      </c>
+      <c r="C30" s="24">
+        <v>3</v>
+      </c>
+      <c r="D30" s="1">
+        <v>5</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F30" s="4">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.1429</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="I30" s="4">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="J30" s="4">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="K30" s="37">
+        <f t="shared" si="9"/>
+        <v>0.14306000000000002</v>
+      </c>
+      <c r="L30" s="37">
+        <f t="shared" si="10"/>
+        <v>1.3416407864998709E-4</v>
+      </c>
+      <c r="M30" s="38">
+        <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
+        <v>1066.3062828704021</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="27">
+        <v>1</v>
+      </c>
+      <c r="C31" s="24">
+        <v>4</v>
+      </c>
+      <c r="D31" s="12">
+        <v>5</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" s="4">
         <v>0.1431</v>
       </c>
-      <c r="H29" s="4">
+      <c r="G31" s="4">
         <v>0.1431</v>
       </c>
-      <c r="I29" s="4">
+      <c r="H31" s="4">
+        <v>0.1431</v>
+      </c>
+      <c r="I31" s="4">
         <v>0.1429</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J31" s="4">
         <v>0.1426</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K31" s="39">
         <f t="shared" si="9"/>
         <v>0.14296000000000003</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L31" s="39">
         <f t="shared" si="10"/>
         <v>2.1908902300206702E-4</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M31" s="40">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>652.5201401744863</v>
       </c>
     </row>
-    <row r="30" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B30" s="29">
+    <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="28">
         <v>0</v>
       </c>
-      <c r="C30" s="30">
+      <c r="C32" s="29">
         <v>5</v>
       </c>
-      <c r="D30" s="7">
+      <c r="D32" s="7">
         <v>5</v>
       </c>
-      <c r="E30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="F30" s="8">
+      <c r="E32" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F32" s="8">
         <v>0.1431</v>
       </c>
-      <c r="G30" s="8">
+      <c r="G32" s="8">
         <v>0.1431</v>
       </c>
-      <c r="H30" s="8">
+      <c r="H32" s="8">
         <v>0.14230000000000001</v>
       </c>
-      <c r="I30" s="8">
+      <c r="I32" s="8">
         <v>0.1431</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J32" s="8">
         <v>0.1431</v>
       </c>
-      <c r="K30" s="42">
+      <c r="K32" s="41">
         <f t="shared" si="9"/>
         <v>0.14294000000000001</v>
       </c>
-      <c r="L30" s="42">
+      <c r="L32" s="41">
         <f t="shared" si="10"/>
         <v>3.577708763999642E-4</v>
       </c>
-      <c r="M30" s="43">
+      <c r="M32" s="42">
         <f>Tabela13[[#This Row],[Media]]/Tabela13[[#This Row],[Desvio Padrao]]</f>
         <v>399.52944587977737</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
-      <c r="B34" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="48"/>
-      <c r="G34" s="48"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="48"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="49"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
-      <c r="B35" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="32" t="s">
+    </row>
+    <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="33">
-        <v>10</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0.1245</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="G36" s="4">
-        <v>0.1241</v>
-      </c>
-      <c r="H36" s="4">
-        <v>0.1246</v>
-      </c>
-      <c r="I36" s="4">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="J36" s="4">
-        <f t="shared" ref="J36:J46" si="11">AVERAGE(E36:I36)</f>
-        <v>0.12426</v>
-      </c>
-      <c r="K36" s="4">
-        <f t="shared" ref="K36:K46" si="12">STDEV(E36:I36)</f>
-        <v>3.2093613071762674E-4</v>
-      </c>
-      <c r="L36" s="4">
-        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>387.17984080555027</v>
-      </c>
-      <c r="M36" s="34">
-        <v>0.12426</v>
-      </c>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="47"/>
+      <c r="K36" s="47"/>
+      <c r="L36" s="47"/>
+      <c r="M36" s="48"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
-      <c r="B37" s="2">
+      <c r="B37" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C37" s="1">
+      <c r="F37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J37" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="K37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M37" s="31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="1"/>
+      <c r="B38" s="32">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.1245</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0.12379999999999999</v>
+      </c>
+      <c r="G38" s="4">
+        <v>0.1241</v>
+      </c>
+      <c r="H38" s="4">
+        <v>0.1246</v>
+      </c>
+      <c r="I38" s="4">
+        <v>0.12429999999999999</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" ref="J38:J48" si="11">AVERAGE(E38:I38)</f>
+        <v>0.12426</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" ref="K38:K48" si="12">STDEV(E38:I38)</f>
+        <v>3.2093613071762674E-4</v>
+      </c>
+      <c r="L38" s="4">
+        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
+        <v>387.17984080555027</v>
+      </c>
+      <c r="M38" s="33">
+        <v>0.12426</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="1"/>
+      <c r="B39" s="2">
+        <v>9</v>
+      </c>
+      <c r="C39" s="1">
+        <v>1</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E39" s="4">
         <v>8.0659999999999996E-2</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F39" s="4">
         <v>9.8790000000000003E-2</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G39" s="4">
         <v>9.1700000000000004E-2</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H39" s="4">
         <v>9.5829999999999999E-2</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I39" s="4">
         <v>9.7530000000000006E-2</v>
       </c>
-      <c r="J37" s="4">
+      <c r="J39" s="4">
         <f t="shared" si="11"/>
         <v>9.2901999999999998E-2</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K39" s="4">
         <f t="shared" si="12"/>
         <v>7.347984077282696E-3</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L39" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>12.643195606155341</v>
       </c>
-      <c r="M37" s="34">
-        <f>M36/2</f>
+      <c r="M39" s="33">
+        <f>M38/2</f>
         <v>6.2129999999999998E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="33">
+    <row r="40" spans="1:13" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="32">
         <v>8</v>
       </c>
-      <c r="C38" s="1">
+      <c r="C40" s="1">
         <v>2</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E40" s="4">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F40" s="4">
         <v>8.1799999999999998E-2</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G40" s="4">
         <v>8.1860000000000002E-2</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H40" s="4">
         <v>8.1739999999999993E-2</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I40" s="4">
         <v>8.1769999999999995E-2</v>
       </c>
-      <c r="J38" s="4">
+      <c r="J40" s="4">
         <f t="shared" si="11"/>
         <v>8.1788E-2</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K40" s="4">
         <f t="shared" si="12"/>
         <v>4.5497252664312712E-5</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L40" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>1797.6470052696861</v>
       </c>
-      <c r="M38" s="34">
-        <f t="shared" ref="M38:M39" si="13">M37/2</f>
+      <c r="M40" s="33">
+        <f t="shared" ref="M40:M41" si="13">M39/2</f>
         <v>3.1064999999999999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B39" s="27">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B41" s="26">
         <v>7</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C41" s="23">
         <v>3</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D41" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="35">
+      <c r="E41" s="34">
         <v>8.158E-2</v>
       </c>
-      <c r="F39" s="35">
+      <c r="F41" s="34">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G39" s="35">
+      <c r="G41" s="34">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="H39" s="35">
+      <c r="H41" s="34">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="I39" s="35">
+      <c r="I41" s="34">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J39" s="35">
+      <c r="J41" s="34">
         <f t="shared" si="11"/>
         <v>8.1566E-2</v>
       </c>
-      <c r="K39" s="35">
+      <c r="K41" s="34">
         <f t="shared" si="12"/>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="L39" s="35">
+      <c r="L41" s="34">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
-      <c r="M39" s="34">
+      <c r="M41" s="33">
         <f t="shared" si="13"/>
-        <v>1.5532499999999999E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="33">
-        <v>6</v>
-      </c>
-      <c r="C40" s="1">
-        <v>4</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="4">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="F40" s="4">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="G40" s="4">
-        <v>9.2520000000000005E-2</v>
-      </c>
-      <c r="H40" s="4">
-        <v>9.2549999999999993E-2</v>
-      </c>
-      <c r="I40" s="4">
-        <v>9.2490000000000003E-2</v>
-      </c>
-      <c r="J40" s="4">
-        <f t="shared" si="11"/>
-        <v>9.2508000000000007E-2</v>
-      </c>
-      <c r="K40" s="4">
-        <f t="shared" si="12"/>
-        <v>2.6832815729994057E-5</v>
-      </c>
-      <c r="L40" s="4">
-        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>3447.5696077096154</v>
-      </c>
-      <c r="M40" s="34">
-        <f>M39</f>
-        <v>1.5532499999999999E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="2">
-        <v>5</v>
-      </c>
-      <c r="C41" s="1">
-        <v>5</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0.1183</v>
-      </c>
-      <c r="F41" s="4">
-        <v>0.1182</v>
-      </c>
-      <c r="G41" s="4">
-        <v>0.1182</v>
-      </c>
-      <c r="H41" s="4">
-        <v>0.1183</v>
-      </c>
-      <c r="I41" s="4">
-        <v>0.1183</v>
-      </c>
-      <c r="J41" s="4">
-        <f t="shared" si="11"/>
-        <v>0.11826</v>
-      </c>
-      <c r="K41" s="4">
-        <f t="shared" si="12"/>
-        <v>5.4772255750518179E-5</v>
-      </c>
-      <c r="L41" s="4">
-        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>2159.1223216853032</v>
-      </c>
-      <c r="M41" s="34">
-        <f t="shared" ref="M41:M46" si="14">M40</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
-      <c r="B42" s="33">
+      <c r="B42" s="32">
+        <v>6</v>
+      </c>
+      <c r="C42" s="1">
         <v>4</v>
       </c>
-      <c r="C42" s="1">
-        <v>6</v>
-      </c>
       <c r="D42" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E42" s="4">
-        <v>0.13300000000000001</v>
+        <v>9.2490000000000003E-2</v>
       </c>
       <c r="F42" s="4">
-        <v>0.1331</v>
+        <v>9.2490000000000003E-2</v>
       </c>
       <c r="G42" s="4">
-        <v>0.1331</v>
+        <v>9.2520000000000005E-2</v>
       </c>
       <c r="H42" s="4">
-        <v>0.13300000000000001</v>
+        <v>9.2549999999999993E-2</v>
       </c>
       <c r="I42" s="4">
-        <v>0.13289999999999999</v>
+        <v>9.2490000000000003E-2</v>
       </c>
       <c r="J42" s="4">
         <f t="shared" si="11"/>
-        <v>0.13302</v>
+        <v>9.2508000000000007E-2</v>
       </c>
       <c r="K42" s="4">
         <f t="shared" si="12"/>
-        <v>8.366600265340829E-5</v>
+        <v>2.6832815729994057E-5</v>
       </c>
       <c r="L42" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>1589.8930961365963</v>
-      </c>
-      <c r="M42" s="34">
-        <f t="shared" si="14"/>
+        <v>3447.5696077096154</v>
+      </c>
+      <c r="M42" s="33">
+        <f>M41</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E43" s="4">
-        <v>0.1414</v>
+        <v>0.1183</v>
       </c>
       <c r="F43" s="4">
-        <v>0.14149999999999999</v>
+        <v>0.1182</v>
       </c>
       <c r="G43" s="4">
-        <v>0.14130000000000001</v>
+        <v>0.1182</v>
       </c>
       <c r="H43" s="4">
-        <v>0.1414</v>
+        <v>0.1183</v>
       </c>
       <c r="I43" s="4">
-        <v>0.1414</v>
+        <v>0.1183</v>
       </c>
       <c r="J43" s="4">
         <f t="shared" si="11"/>
-        <v>0.1414</v>
+        <v>0.11826</v>
       </c>
       <c r="K43" s="4">
         <f t="shared" si="12"/>
-        <v>7.0710678118646961E-5</v>
+        <v>5.4772255750518179E-5</v>
       </c>
       <c r="L43" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>1999.6979771957767</v>
-      </c>
-      <c r="M43" s="34">
-        <f t="shared" si="14"/>
+        <v>2159.1223216853032</v>
+      </c>
+      <c r="M43" s="33">
+        <f t="shared" ref="M43:M48" si="14">M42</f>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
-      <c r="B44" s="33">
-        <v>2</v>
+      <c r="B44" s="32">
+        <v>4</v>
       </c>
       <c r="C44" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E44" s="4">
-        <v>0.24099999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="F44" s="4">
-        <v>0.2427</v>
+        <v>0.1331</v>
       </c>
       <c r="G44" s="4">
-        <v>0.2442</v>
+        <v>0.1331</v>
       </c>
       <c r="H44" s="4">
-        <v>0.24149999999999999</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="I44" s="4">
-        <v>0.24249999999999999</v>
+        <v>0.13289999999999999</v>
       </c>
       <c r="J44" s="4">
         <f t="shared" si="11"/>
-        <v>0.24237999999999998</v>
+        <v>0.13302</v>
       </c>
       <c r="K44" s="4">
         <f t="shared" si="12"/>
-        <v>1.2357184145265492E-3</v>
+        <v>8.366600265340829E-5</v>
       </c>
       <c r="L44" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>196.14500937324382</v>
-      </c>
-      <c r="M44" s="34">
+        <v>1589.8930961365963</v>
+      </c>
+      <c r="M44" s="33">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
@@ -11505,1137 +11327,1266 @@
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C45" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E45" s="4">
-        <v>0.47499999999999998</v>
+        <v>0.1414</v>
       </c>
       <c r="F45" s="4">
-        <v>0.47660000000000002</v>
+        <v>0.14149999999999999</v>
       </c>
       <c r="G45" s="4">
-        <v>0.47389999999999999</v>
+        <v>0.14130000000000001</v>
       </c>
       <c r="H45" s="4">
-        <v>0.47420000000000001</v>
+        <v>0.1414</v>
       </c>
       <c r="I45" s="4">
-        <v>0.47689999999999999</v>
+        <v>0.1414</v>
       </c>
       <c r="J45" s="4">
         <f t="shared" si="11"/>
-        <v>0.47531999999999996</v>
+        <v>0.1414</v>
       </c>
       <c r="K45" s="4">
         <f t="shared" si="12"/>
-        <v>1.3700364958642577E-3</v>
+        <v>7.0710678118646961E-5</v>
       </c>
       <c r="L45" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>346.93966287383802</v>
-      </c>
-      <c r="M45" s="34">
+        <v>1999.6979771957767</v>
+      </c>
+      <c r="M45" s="33">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
-      <c r="B46" s="33">
-        <v>0</v>
+      <c r="B46" s="32">
+        <v>2</v>
       </c>
       <c r="C46" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E46" s="4">
-        <v>1.0209999999999999</v>
+        <v>0.24099999999999999</v>
       </c>
       <c r="F46" s="4">
-        <v>1.02</v>
+        <v>0.2427</v>
       </c>
       <c r="G46" s="4">
-        <v>1.0209999999999999</v>
+        <v>0.2442</v>
       </c>
       <c r="H46" s="4">
-        <v>1.016</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="I46" s="4">
-        <v>1.0209999999999999</v>
+        <v>0.24249999999999999</v>
       </c>
       <c r="J46" s="4">
         <f t="shared" si="11"/>
-        <v>1.0197999999999998</v>
+        <v>0.24237999999999998</v>
       </c>
       <c r="K46" s="4">
         <f t="shared" si="12"/>
-        <v>2.167948338867836E-3</v>
+        <v>1.2357184145265492E-3</v>
       </c>
       <c r="L46" s="4">
         <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
-        <v>470.39866297393797</v>
-      </c>
-      <c r="M46" s="34">
+        <v>196.14500937324382</v>
+      </c>
+      <c r="M46" s="33">
         <f t="shared" si="14"/>
         <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="3"/>
+      <c r="B47" s="2">
+        <v>1</v>
+      </c>
+      <c r="C47" s="1">
+        <v>9</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="F47" s="4">
+        <v>0.47660000000000002</v>
+      </c>
+      <c r="G47" s="4">
+        <v>0.47389999999999999</v>
+      </c>
+      <c r="H47" s="4">
+        <v>0.47420000000000001</v>
+      </c>
+      <c r="I47" s="4">
+        <v>0.47689999999999999</v>
+      </c>
+      <c r="J47" s="4">
+        <f t="shared" si="11"/>
+        <v>0.47531999999999996</v>
+      </c>
+      <c r="K47" s="4">
+        <f t="shared" si="12"/>
+        <v>1.3700364958642577E-3</v>
+      </c>
+      <c r="L47" s="4">
+        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
+        <v>346.93966287383802</v>
+      </c>
+      <c r="M47" s="33">
+        <f t="shared" si="14"/>
+        <v>1.5532499999999999E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="46"/>
-      <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="D48" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E48" s="10" t="s">
+      <c r="A48" s="1"/>
+      <c r="B48" s="32">
+        <v>0</v>
+      </c>
+      <c r="C48" s="1">
         <v>10</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H48" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I48" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K48" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="L48" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="M48" s="15" t="s">
-        <v>37</v>
+      <c r="D48" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="4">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="F48" s="4">
+        <v>1.02</v>
+      </c>
+      <c r="G48" s="4">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="H48" s="4">
+        <v>1.016</v>
+      </c>
+      <c r="I48" s="4">
+        <v>1.0209999999999999</v>
+      </c>
+      <c r="J48" s="4">
+        <f t="shared" si="11"/>
+        <v>1.0197999999999998</v>
+      </c>
+      <c r="K48" s="4">
+        <f t="shared" si="12"/>
+        <v>2.167948338867836E-3</v>
+      </c>
+      <c r="L48" s="4">
+        <f>Tabela44[[#This Row],[Media]]/Tabela44[[#This Row],[Desvio Padrao]]</f>
+        <v>470.39866297393797</v>
+      </c>
+      <c r="M48" s="33">
+        <f t="shared" si="14"/>
+        <v>1.5532499999999999E-2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="27">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="I50" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="24">
+      <c r="J50" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L50" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="26">
+        <v>7</v>
+      </c>
+      <c r="C51" s="23">
         <v>3</v>
       </c>
-      <c r="D49" s="17">
+      <c r="D51" s="16">
         <v>0</v>
       </c>
-      <c r="E49" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F49" s="35">
+      <c r="E51" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F51" s="34">
         <v>8.158E-2</v>
       </c>
-      <c r="G49" s="35">
+      <c r="G51" s="34">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H49" s="35">
+      <c r="H51" s="34">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I49" s="35">
+      <c r="I51" s="34">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J49" s="35">
+      <c r="J51" s="34">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K49" s="36">
-        <f t="shared" ref="K49:K52" si="15">AVERAGE(F49:J49)</f>
+      <c r="K51" s="35">
+        <f t="shared" ref="K51:K56" si="15">AVERAGE(F51:J51)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L49" s="36">
-        <f t="shared" ref="L49:L52" si="16">STDEV(F49:J49)</f>
+      <c r="L51" s="35">
+        <f t="shared" ref="L51:L56" si="16">STDEV(F51:J51)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M49" s="37">
+      <c r="M51" s="36">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="B50" s="2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>70</v>
+      </c>
+      <c r="B52" s="2">
         <v>7</v>
       </c>
-      <c r="C50" s="25">
+      <c r="C52" s="24">
         <v>2</v>
       </c>
-      <c r="D50" s="18">
+      <c r="D52" s="17">
         <v>1</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="F50" s="4">
+      <c r="E52" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G52" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="H50" s="4">
+      <c r="H52" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="I50" s="4">
+      <c r="I52" s="4">
         <v>8.1790000000000002E-2</v>
       </c>
-      <c r="J50" s="4">
+      <c r="J52" s="4">
         <v>8.1790000000000002E-2</v>
       </c>
-      <c r="K50" s="38">
+      <c r="K52" s="37">
         <f t="shared" si="15"/>
         <v>8.1820000000000004E-2</v>
       </c>
-      <c r="L50" s="38">
+      <c r="L52" s="37">
         <f t="shared" si="16"/>
         <v>2.7386127875255291E-5</v>
       </c>
-      <c r="M50" s="39">
+      <c r="M52" s="38">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2987.6439770051752</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="46" t="s">
-        <v>72</v>
-      </c>
-      <c r="B51" s="2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="2">
         <v>7</v>
       </c>
-      <c r="C51" s="25">
+      <c r="C53" s="24">
         <v>1</v>
       </c>
-      <c r="D51" s="18">
+      <c r="D53" s="17">
         <v>2</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F51" s="4">
+      <c r="E53" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F53" s="4">
         <v>8.4190000000000001E-2</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G53" s="4">
         <v>8.4129999999999996E-2</v>
       </c>
-      <c r="H51" s="4">
+      <c r="H53" s="4">
         <v>8.4099999999999994E-2</v>
       </c>
-      <c r="I51" s="4">
+      <c r="I53" s="4">
         <v>8.4110000000000004E-2</v>
       </c>
-      <c r="J51" s="4">
+      <c r="J53" s="4">
         <v>8.4110000000000004E-2</v>
       </c>
-      <c r="K51" s="40">
+      <c r="K53" s="39">
         <f t="shared" si="15"/>
         <v>8.4128000000000008E-2</v>
       </c>
-      <c r="L51" s="40">
+      <c r="L53" s="39">
         <f t="shared" si="16"/>
         <v>3.6331804249170328E-5</v>
       </c>
-      <c r="M51" s="41">
+      <c r="M53" s="40">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>2315.5469908137347</v>
       </c>
     </row>
-    <row r="52" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46" t="s">
-        <v>73</v>
-      </c>
-      <c r="B52" s="2">
+    <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
         <v>7</v>
       </c>
-      <c r="C52" s="25">
+      <c r="C54" s="24">
         <v>0</v>
       </c>
-      <c r="D52" s="18">
+      <c r="D54" s="17">
         <v>3</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F52" s="4">
+      <c r="E54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F54" s="4">
         <v>8.1720000000000001E-2</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G54" s="4">
         <v>8.1750000000000003E-2</v>
       </c>
-      <c r="H52" s="4">
+      <c r="H54" s="4">
         <v>8.1780000000000005E-2</v>
       </c>
-      <c r="I52" s="4">
+      <c r="I54" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="J52" s="4">
+      <c r="J54" s="4">
         <v>8.1839999999999996E-2</v>
       </c>
-      <c r="K52" s="38">
+      <c r="K54" s="37">
         <f t="shared" si="15"/>
         <v>8.1785999999999998E-2</v>
       </c>
-      <c r="L52" s="38">
+      <c r="L54" s="37">
         <f t="shared" si="16"/>
         <v>5.3665631459991991E-5</v>
       </c>
-      <c r="M52" s="39">
+      <c r="M54" s="38">
         <f>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</f>
         <v>1523.9921300650658</v>
       </c>
     </row>
-    <row r="53" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="46"/>
-      <c r="B53" s="6"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="3"/>
+    <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="52"/>
+      <c r="E55" s="1"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="50"/>
+      <c r="L55" s="50"/>
+      <c r="M55" s="5"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="6"/>
-      <c r="M54" s="9"/>
+    <row r="56" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="45"/>
+      <c r="B56" s="6"/>
+      <c r="E56" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="F56" s="54">
+        <v>0.62219999999999998</v>
+      </c>
+      <c r="G56" s="54">
+        <v>0.62529999999999997</v>
+      </c>
+      <c r="H56" s="54">
+        <v>0.62180000000000002</v>
+      </c>
+      <c r="I56" s="54">
+        <v>0.63719999999999999</v>
+      </c>
+      <c r="J56" s="54">
+        <v>0.62209999999999999</v>
+      </c>
+      <c r="K56" s="55">
+        <f>AVERAGE(F56:J56)</f>
+        <v>0.62572000000000005</v>
+      </c>
+      <c r="L56" s="55">
+        <f>AVERAGE(G56:K56)</f>
+        <v>0.62642400000000009</v>
+      </c>
+      <c r="M56" s="56">
+        <f>K56/L56</f>
+        <v>0.99887616055578965</v>
+      </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A55" s="46"/>
-      <c r="B55" s="28" t="s">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57" s="45"/>
+      <c r="B57" s="6"/>
+      <c r="M57" s="9"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58" s="45"/>
+      <c r="B58" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="C55" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D55" s="19" t="s">
+      <c r="C58" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D58" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E58" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="10" t="s">
+      <c r="F58" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="G58" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H55" s="10" t="s">
+      <c r="H58" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I55" s="10" t="s">
+      <c r="I58" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J55" s="10" t="s">
+      <c r="J58" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="K55" s="10" t="s">
+      <c r="K58" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="L55" s="10" t="s">
+      <c r="L58" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="M55" s="15" t="s">
-        <v>37</v>
+      <c r="M58" s="14" t="s">
+        <v>36</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A56" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="B56" s="27">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="26">
         <v>7</v>
       </c>
-      <c r="C56" s="24">
+      <c r="C59" s="23">
         <v>0</v>
       </c>
-      <c r="D56" s="17">
+      <c r="D59" s="16">
         <v>3</v>
       </c>
-      <c r="E56" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="F56" s="35">
+      <c r="E59" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F59" s="34">
         <v>8.158E-2</v>
       </c>
-      <c r="G56" s="35">
+      <c r="G59" s="34">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H56" s="35">
+      <c r="H59" s="34">
         <v>8.1519999999999995E-2</v>
       </c>
-      <c r="I56" s="35">
+      <c r="I59" s="34">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="J56" s="35">
+      <c r="J59" s="34">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="K56" s="36">
-        <f t="shared" ref="K56:K61" si="17">AVERAGE(F56:J56)</f>
+      <c r="K59" s="35">
+        <f t="shared" ref="K59:K64" si="17">AVERAGE(F59:J59)</f>
         <v>8.1566E-2</v>
       </c>
-      <c r="L56" s="36">
-        <f t="shared" ref="L56:L61" si="18">STDEV(F56:J56)</f>
+      <c r="L59" s="35">
+        <f t="shared" ref="L59:L64" si="18">STDEV(F59:J59)</f>
         <v>3.3615472627945877E-5</v>
       </c>
-      <c r="M56" s="37">
+      <c r="M59" s="36">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2426.4421596200004</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B57" s="28">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B60" s="27">
         <v>6</v>
       </c>
-      <c r="C57" s="25">
+      <c r="C60" s="24">
         <v>1</v>
       </c>
-      <c r="D57" s="20">
+      <c r="D60" s="19">
         <v>3</v>
       </c>
-      <c r="E57" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="F57" s="4">
+      <c r="E60" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F60" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="G57" s="4">
+      <c r="G60" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="H57" s="4">
+      <c r="H60" s="4">
         <v>8.1540000000000001E-2</v>
       </c>
-      <c r="I57" s="4">
+      <c r="I60" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J57" s="4">
+      <c r="J60" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="K57" s="38">
+      <c r="K60" s="37">
         <f t="shared" si="17"/>
         <v>8.1574000000000008E-2</v>
       </c>
-      <c r="L57" s="38">
+      <c r="L60" s="37">
         <f t="shared" si="18"/>
         <v>3.0495901363955644E-5</v>
       </c>
-      <c r="M57" s="39">
+      <c r="M60" s="38">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2674.9168364118486</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B58" s="28">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B61" s="27">
         <v>5</v>
       </c>
-      <c r="C58" s="25">
+      <c r="C61" s="24">
         <v>2</v>
       </c>
-      <c r="D58" s="20">
+      <c r="D61" s="19">
         <v>3</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F58" s="4">
+      <c r="E61" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F61" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="G58" s="4">
+      <c r="G61" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="H58" s="4">
+      <c r="H61" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="I58" s="4">
+      <c r="I61" s="4">
         <v>8.1629999999999994E-2</v>
       </c>
-      <c r="J58" s="4">
+      <c r="J61" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="K58" s="40">
+      <c r="K61" s="39">
         <f t="shared" si="17"/>
         <v>8.1613999999999992E-2</v>
       </c>
-      <c r="L58" s="40">
+      <c r="L61" s="39">
         <f t="shared" si="18"/>
         <v>1.3416407864993537E-5</v>
       </c>
-      <c r="M58" s="41">
+      <c r="M61" s="40">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>6083.1483971912858</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" s="46" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="28">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" s="27">
         <v>4</v>
       </c>
-      <c r="C59" s="25">
+      <c r="C62" s="24">
         <v>3</v>
       </c>
-      <c r="D59" s="20">
+      <c r="D62" s="19">
         <v>3</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F59" s="4">
+      <c r="E62" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F62" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="G59" s="4">
+      <c r="G62" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="H59" s="4">
+      <c r="H62" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="I59" s="4">
+      <c r="I62" s="4">
         <v>8.1629999999999994E-2</v>
       </c>
-      <c r="J59" s="4">
+      <c r="J62" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="K59" s="38">
+      <c r="K62" s="37">
         <f t="shared" si="17"/>
         <v>8.1598000000000004E-2</v>
       </c>
-      <c r="L59" s="38">
+      <c r="L62" s="37">
         <f t="shared" si="18"/>
         <v>2.6832815729994315E-5</v>
       </c>
-      <c r="M59" s="39">
+      <c r="M62" s="38">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>3040.9779138008225</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="28">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="27">
         <v>3</v>
       </c>
-      <c r="C60" s="25">
+      <c r="C63" s="24">
         <v>4</v>
       </c>
-      <c r="D60" s="20">
+      <c r="D63" s="19">
         <v>3</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F60" s="4">
+      <c r="E63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F63" s="4">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="G60" s="4">
+      <c r="G63" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="H60" s="4">
+      <c r="H63" s="4">
         <v>8.1619999999999998E-2</v>
       </c>
-      <c r="I60" s="4">
+      <c r="I63" s="4">
         <v>8.1530000000000005E-2</v>
       </c>
-      <c r="J60" s="4">
+      <c r="J63" s="4">
         <v>8.1549999999999997E-2</v>
       </c>
-      <c r="K60" s="44">
+      <c r="K63" s="43">
         <f t="shared" si="17"/>
         <v>8.1568000000000002E-2</v>
       </c>
-      <c r="L60" s="44">
+      <c r="L63" s="43">
         <f t="shared" si="18"/>
         <v>3.6331804249167848E-5</v>
       </c>
-      <c r="M60" s="45">
+      <c r="M63" s="44">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>2245.0853098458015</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" s="46" t="s">
-        <v>68</v>
-      </c>
-      <c r="B61" s="28">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="B64" s="27">
         <v>2</v>
       </c>
-      <c r="C61" s="25">
+      <c r="C64" s="24">
         <v>5</v>
       </c>
-      <c r="D61" s="20">
+      <c r="D64" s="19">
         <v>3</v>
       </c>
-      <c r="E61" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F61" s="4">
+      <c r="E64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F64" s="4">
         <v>8.1559999999999994E-2</v>
       </c>
-      <c r="G61" s="4">
+      <c r="G64" s="4">
         <v>8.1540000000000001E-2</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H64" s="4">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="I61" s="4">
+      <c r="I64" s="4">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="J61" s="4">
+      <c r="J64" s="4">
         <v>8.1559999999999994E-2</v>
       </c>
-      <c r="K61" s="4">
+      <c r="K64" s="4">
         <f t="shared" si="17"/>
         <v>8.156999999999999E-2</v>
       </c>
-      <c r="L61" s="4">
+      <c r="L64" s="4">
         <f t="shared" si="18"/>
         <v>2.4494897427833614E-5</v>
       </c>
-      <c r="M61" s="5">
+      <c r="M64" s="5">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>3330.0813053134812</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" s="46" t="s">
-        <v>69</v>
-      </c>
-      <c r="B62" s="28">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" s="27">
         <v>1</v>
       </c>
-      <c r="C62" s="25">
+      <c r="C65" s="24">
         <v>6</v>
       </c>
-      <c r="D62" s="20">
+      <c r="D65" s="19">
         <v>3</v>
       </c>
-      <c r="E62" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="F62" s="4">
+      <c r="E65" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F65" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="G62" s="4">
+      <c r="G65" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="H62" s="4">
+      <c r="H65" s="4">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="I62" s="4">
+      <c r="I65" s="4">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J62" s="4">
+      <c r="J65" s="4">
         <v>8.158E-2</v>
       </c>
-      <c r="K62" s="4">
-        <f>AVERAGE(F62:J62)</f>
+      <c r="K65" s="4">
+        <f>AVERAGE(F65:J65)</f>
         <v>8.1580000000000014E-2</v>
       </c>
-      <c r="L62" s="4">
-        <f>STDEV(F62:J62)</f>
+      <c r="L65" s="4">
+        <f>STDEV(F65:J65)</f>
         <v>1.7320508075688065E-5</v>
       </c>
-      <c r="M62" s="5">
+      <c r="M65" s="5">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>4710.0234960491598</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="46" t="s">
-        <v>70</v>
-      </c>
-      <c r="B63" s="29">
+    <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B66" s="28">
         <v>0</v>
       </c>
-      <c r="C63" s="30">
+      <c r="C66" s="29">
         <v>7</v>
       </c>
-      <c r="D63" s="21">
+      <c r="D66" s="20">
         <v>3</v>
       </c>
-      <c r="E63" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F63" s="8">
+      <c r="E66" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F66" s="8">
         <v>8.1610000000000002E-2</v>
       </c>
-      <c r="G63" s="8">
+      <c r="G66" s="8">
         <v>8.1600000000000006E-2</v>
       </c>
-      <c r="H63" s="8">
+      <c r="H66" s="8">
         <v>8.1589999999999996E-2</v>
       </c>
-      <c r="I63" s="8">
+      <c r="I66" s="8">
         <v>8.1570000000000004E-2</v>
       </c>
-      <c r="J63" s="8">
+      <c r="J66" s="8">
         <v>8.158E-2</v>
       </c>
-      <c r="K63" s="8">
-        <f>AVERAGE(F63:J63)</f>
+      <c r="K66" s="8">
+        <f>AVERAGE(F66:J66)</f>
         <v>8.159000000000001E-2</v>
       </c>
-      <c r="L63" s="8">
-        <f>STDEV(F63:J63)</f>
+      <c r="L66" s="8">
+        <f>STDEV(F66:J66)</f>
         <v>1.5811388300842352E-5</v>
       </c>
-      <c r="M63" s="43">
+      <c r="M66" s="42">
         <f>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</f>
         <v>5160.2046858626136</v>
       </c>
     </row>
-    <row r="95" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="C95" s="50" t="s">
-        <v>41</v>
-      </c>
-      <c r="D95" s="50"/>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C98" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="49"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C97" s="11" t="s">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C100" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L100" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C101" s="12">
+        <v>10</v>
+      </c>
+      <c r="D101" s="1">
+        <v>0</v>
+      </c>
+      <c r="E101" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="1" t="s">
+      <c r="F101" s="4">
+        <v>0.2482</v>
+      </c>
+      <c r="G101" s="4">
+        <v>0.2319</v>
+      </c>
+      <c r="H101" s="4">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="I101" s="4">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="J101" s="4">
+        <v>0.23580000000000001</v>
+      </c>
+      <c r="K101" s="4">
+        <f t="shared" ref="K101:K111" si="19">AVERAGE(F101:J101)</f>
+        <v>0.23529999999999998</v>
+      </c>
+      <c r="L101" s="4">
+        <f t="shared" ref="L101:L111" si="20">STDEV(F101:J101)</f>
+        <v>7.6720271115266582E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C102" s="1">
         <v>9</v>
       </c>
-      <c r="G97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H97" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J97" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K97" s="1" t="s">
+      <c r="D102" s="1">
         <v>1</v>
       </c>
-      <c r="L97" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C98" s="12">
-        <v>10</v>
-      </c>
-      <c r="D98" s="1">
-        <v>0</v>
-      </c>
-      <c r="E98" s="1" t="s">
+      <c r="E102" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F98" s="4">
-        <v>0.2482</v>
-      </c>
-      <c r="G98" s="4">
-        <v>0.2319</v>
-      </c>
-      <c r="H98" s="4">
-        <v>0.22839999999999999</v>
-      </c>
-      <c r="I98" s="4">
-        <v>0.23219999999999999</v>
-      </c>
-      <c r="J98" s="4">
-        <v>0.23580000000000001</v>
-      </c>
-      <c r="K98" s="4">
-        <f t="shared" ref="K98:K108" si="19">AVERAGE(F98:J98)</f>
-        <v>0.23529999999999998</v>
-      </c>
-      <c r="L98" s="4">
-        <f t="shared" ref="L98:L108" si="20">STDEV(F98:J98)</f>
-        <v>7.6720271115266582E-3</v>
-      </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C99" s="1">
-        <v>9</v>
-      </c>
-      <c r="D99" s="1">
-        <v>1</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F99" s="4">
+      <c r="F102" s="4">
         <v>0.2099</v>
       </c>
-      <c r="G99" s="4">
+      <c r="G102" s="4">
         <v>0.2074</v>
       </c>
-      <c r="H99" s="4">
+      <c r="H102" s="4">
         <v>0.2059</v>
       </c>
-      <c r="I99" s="4">
+      <c r="I102" s="4">
         <v>0.20810000000000001</v>
       </c>
-      <c r="J99" s="4">
+      <c r="J102" s="4">
         <v>0.18429999999999999</v>
       </c>
-      <c r="K99" s="4">
+      <c r="K102" s="4">
         <f t="shared" si="19"/>
         <v>0.20311999999999997</v>
       </c>
-      <c r="L99" s="4">
+      <c r="L102" s="4">
         <f t="shared" si="20"/>
         <v>1.0618474466701897E-2</v>
       </c>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C100" s="12">
+    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C103" s="12">
         <v>8</v>
       </c>
-      <c r="D100" s="1">
+      <c r="D103" s="1">
         <v>2</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F100" s="4">
+      <c r="E103" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F103" s="4">
         <v>0.15540000000000001</v>
       </c>
-      <c r="G100" s="4">
+      <c r="G103" s="4">
         <v>0.1525</v>
       </c>
-      <c r="H100" s="4">
+      <c r="H103" s="4">
         <v>0.158</v>
       </c>
-      <c r="I100" s="4">
+      <c r="I103" s="4">
         <v>0.15509999999999999</v>
       </c>
-      <c r="J100" s="4">
+      <c r="J103" s="4">
         <v>0.15490000000000001</v>
       </c>
-      <c r="K100" s="4">
+      <c r="K103" s="4">
         <f t="shared" si="19"/>
         <v>0.15518000000000001</v>
       </c>
-      <c r="L100" s="4">
+      <c r="L103" s="4">
         <f t="shared" si="20"/>
         <v>1.9537144110642187E-3</v>
       </c>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="1">
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C104" s="1">
         <v>7</v>
       </c>
-      <c r="D101" s="1">
+      <c r="D104" s="1">
         <v>3</v>
       </c>
-      <c r="E101" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F101" s="4">
+      <c r="E104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104" s="4">
         <v>0.13489999999999999</v>
       </c>
-      <c r="G101" s="4">
+      <c r="G104" s="4">
         <v>0.15740000000000001</v>
       </c>
-      <c r="H101" s="4">
+      <c r="H104" s="4">
         <v>0.1348</v>
       </c>
-      <c r="I101" s="4">
+      <c r="I104" s="4">
         <v>0.1346</v>
       </c>
-      <c r="J101" s="4">
+      <c r="J104" s="4">
         <v>0.1565</v>
       </c>
-      <c r="K101" s="4">
+      <c r="K104" s="4">
         <f t="shared" si="19"/>
         <v>0.14364000000000002</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L104" s="4">
         <f t="shared" si="20"/>
         <v>1.2154957836208241E-2</v>
       </c>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C102" s="12">
+    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C105" s="12">
         <v>6</v>
       </c>
-      <c r="D102" s="1">
+      <c r="D105" s="1">
         <v>4</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F102" s="4">
+      <c r="E105" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F105" s="4">
         <v>0.1477</v>
       </c>
-      <c r="G102" s="4">
+      <c r="G105" s="4">
         <v>0.15290000000000001</v>
       </c>
-      <c r="H102" s="4">
+      <c r="H105" s="4">
         <v>0.15559999999999999</v>
       </c>
-      <c r="I102" s="4">
+      <c r="I105" s="4">
         <v>0.15590000000000001</v>
       </c>
-      <c r="J102" s="4">
+      <c r="J105" s="4">
         <v>0.155</v>
       </c>
-      <c r="K102" s="4">
+      <c r="K105" s="4">
         <f t="shared" si="19"/>
         <v>0.15342</v>
       </c>
-      <c r="L102" s="4">
+      <c r="L105" s="4">
         <f t="shared" si="20"/>
         <v>3.4054368295418436E-3</v>
       </c>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C103" s="1">
+    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C106" s="1">
         <v>5</v>
       </c>
-      <c r="D103" s="1">
+      <c r="D106" s="1">
         <v>5</v>
       </c>
-      <c r="E103" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F103" s="4">
+      <c r="E106" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F106" s="4">
         <v>0.11940000000000001</v>
       </c>
-      <c r="G103" s="4">
+      <c r="G106" s="4">
         <v>0.14349999999999999</v>
       </c>
-      <c r="H103" s="4">
+      <c r="H106" s="4">
         <v>0.1196</v>
       </c>
-      <c r="I103" s="4">
+      <c r="I106" s="4">
         <v>0.1429</v>
       </c>
-      <c r="J103" s="4">
+      <c r="J106" s="4">
         <v>0.14280000000000001</v>
       </c>
-      <c r="K103" s="4">
+      <c r="K106" s="4">
         <f t="shared" si="19"/>
         <v>0.13364000000000001</v>
       </c>
-      <c r="L103" s="4">
+      <c r="L106" s="4">
         <f t="shared" si="20"/>
         <v>1.2910964332690256E-2</v>
       </c>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C104" s="12">
+    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C107" s="12">
         <v>4</v>
       </c>
-      <c r="D104" s="1">
+      <c r="D107" s="1">
         <v>6</v>
       </c>
-      <c r="E104" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F104" s="4">
+      <c r="E107" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F107" s="4">
         <v>0.14180000000000001</v>
       </c>
-      <c r="G104" s="4">
+      <c r="G107" s="4">
         <v>0.12529999999999999</v>
       </c>
-      <c r="H104" s="4">
+      <c r="H107" s="4">
         <v>0.12509999999999999</v>
       </c>
-      <c r="I104" s="4">
+      <c r="I107" s="4">
         <v>0.12529999999999999</v>
       </c>
-      <c r="J104" s="4">
+      <c r="J107" s="4">
         <v>0.14199999999999999</v>
       </c>
-      <c r="K104" s="4">
+      <c r="K107" s="4">
         <f t="shared" si="19"/>
         <v>0.13189999999999999</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L107" s="4">
         <f t="shared" si="20"/>
         <v>9.1293482790394224E-3</v>
       </c>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C105" s="1">
+    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C108" s="1">
         <v>3</v>
       </c>
-      <c r="D105" s="1">
+      <c r="D108" s="1">
         <v>7</v>
       </c>
-      <c r="E105" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" s="4">
+      <c r="E108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F108" s="4">
         <v>0.15479999999999999</v>
       </c>
-      <c r="G105" s="4">
+      <c r="G108" s="4">
         <v>0.13039999999999999</v>
       </c>
-      <c r="H105" s="4">
+      <c r="H108" s="4">
         <v>0.13020000000000001</v>
       </c>
-      <c r="I105" s="4">
+      <c r="I108" s="4">
         <v>0.1552</v>
       </c>
-      <c r="J105" s="4">
+      <c r="J108" s="4">
         <v>0.15379999999999999</v>
       </c>
-      <c r="K105" s="4">
+      <c r="K108" s="4">
         <f t="shared" si="19"/>
         <v>0.14487999999999998</v>
       </c>
-      <c r="L105" s="4">
+      <c r="L108" s="4">
         <f t="shared" si="20"/>
         <v>1.3319609603888546E-2</v>
       </c>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C106" s="12">
+    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C109" s="12">
         <v>2</v>
       </c>
-      <c r="D106" s="1">
+      <c r="D109" s="1">
         <v>8</v>
       </c>
-      <c r="E106" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F106" s="4">
+      <c r="E109" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F109" s="4">
         <v>0.1588</v>
       </c>
-      <c r="G106" s="4">
+      <c r="G109" s="4">
         <v>0.15390000000000001</v>
       </c>
-      <c r="H106" s="4">
+      <c r="H109" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="I106" s="4">
+      <c r="I109" s="4">
         <v>0.15909999999999999</v>
       </c>
-      <c r="J106" s="4">
+      <c r="J109" s="4">
         <v>0.1552</v>
       </c>
-      <c r="K106" s="4">
+      <c r="K109" s="4">
         <f t="shared" si="19"/>
         <v>0.15722</v>
       </c>
-      <c r="L106" s="4">
+      <c r="L109" s="4">
         <f t="shared" si="20"/>
         <v>2.4833445189904606E-3</v>
       </c>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C107" s="1">
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C110" s="1">
         <v>1</v>
       </c>
-      <c r="D107" s="1">
+      <c r="D110" s="1">
         <v>9</v>
       </c>
-      <c r="E107" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F107" s="4">
+      <c r="E110" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F110" s="4">
         <v>0.16159999999999999</v>
       </c>
-      <c r="G107" s="4">
+      <c r="G110" s="4">
         <v>0.16600000000000001</v>
       </c>
-      <c r="H107" s="4">
+      <c r="H110" s="4">
         <v>0.16569999999999999</v>
       </c>
-      <c r="I107" s="4">
+      <c r="I110" s="4">
         <v>0.14080000000000001</v>
       </c>
-      <c r="J107" s="4">
+      <c r="J110" s="4">
         <v>0.16619999999999999</v>
       </c>
-      <c r="K107" s="4">
+      <c r="K110" s="4">
         <f t="shared" si="19"/>
         <v>0.16006000000000001</v>
       </c>
-      <c r="L107" s="4">
+      <c r="L110" s="4">
         <f t="shared" si="20"/>
         <v>1.0932886169717486E-2</v>
       </c>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C108" s="12">
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C111" s="12">
         <v>0</v>
       </c>
-      <c r="D108" s="1">
+      <c r="D111" s="1">
         <v>10</v>
       </c>
-      <c r="E108" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F108" s="4">
+      <c r="E111" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F111" s="4">
         <v>0.16919999999999999</v>
       </c>
-      <c r="G108" s="4">
+      <c r="G111" s="4">
         <v>0.1691</v>
       </c>
-      <c r="H108" s="4">
+      <c r="H111" s="4">
         <v>0.17230000000000001</v>
       </c>
-      <c r="I108" s="4">
+      <c r="I111" s="4">
         <v>0.1741</v>
       </c>
-      <c r="J108" s="4">
+      <c r="J111" s="4">
         <v>0.16880000000000001</v>
       </c>
-      <c r="K108" s="4">
+      <c r="K111" s="4">
         <f t="shared" si="19"/>
         <v>0.17069999999999999</v>
       </c>
-      <c r="L108" s="4">
+      <c r="L111" s="4">
         <f t="shared" si="20"/>
         <v>2.3738154940938475E-3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B34:M34"/>
-    <mergeCell ref="C95:D95"/>
+    <mergeCell ref="B36:M36"/>
+    <mergeCell ref="C98:D98"/>
     <mergeCell ref="B2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -12654,845 +12605,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0B742F-2FCC-4AF2-A6A4-BF802F07F29D}">
-  <dimension ref="E2:N29"/>
-  <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:N15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="8.88671875" customWidth="1"/>
-    <col min="7" max="7" width="20.5546875" customWidth="1"/>
-    <col min="8" max="8" width="13.21875" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="11.44140625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.109375" customWidth="1"/>
-    <col min="14" max="14" width="12.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="5:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="E3" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
-      <c r="H3" s="48"/>
-      <c r="I3" s="48"/>
-      <c r="J3" s="48"/>
-      <c r="K3" s="48"/>
-      <c r="L3" s="48"/>
-      <c r="M3" s="48"/>
-      <c r="N3" s="49"/>
-    </row>
-    <row r="4" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E5" s="12">
-        <v>10</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="4">
-        <v>0.1245</v>
-      </c>
-      <c r="I5" s="4">
-        <v>0.12379999999999999</v>
-      </c>
-      <c r="J5" s="4">
-        <v>0.1241</v>
-      </c>
-      <c r="K5" s="4">
-        <v>0.1246</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0.12429999999999999</v>
-      </c>
-      <c r="M5" s="4">
-        <f t="shared" ref="M5:M15" si="0">AVERAGE(H5:L5)</f>
-        <v>0.12426</v>
-      </c>
-      <c r="N5" s="5">
-        <f t="shared" ref="N5:N15" si="1">STDEV(H5:L5)</f>
-        <v>3.2093613071762674E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E6" s="1">
-        <v>9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" s="4">
-        <v>8.0659999999999996E-2</v>
-      </c>
-      <c r="I6" s="4">
-        <v>9.8790000000000003E-2</v>
-      </c>
-      <c r="J6" s="4">
-        <v>9.1700000000000004E-2</v>
-      </c>
-      <c r="K6" s="4">
-        <v>9.5829999999999999E-2</v>
-      </c>
-      <c r="L6" s="4">
-        <v>9.7530000000000006E-2</v>
-      </c>
-      <c r="M6" s="4">
-        <f t="shared" si="0"/>
-        <v>9.2901999999999998E-2</v>
-      </c>
-      <c r="N6" s="5">
-        <f t="shared" si="1"/>
-        <v>7.347984077282696E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E7" s="12">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="4">
-        <v>6.2019999999999999E-2</v>
-      </c>
-      <c r="I7" s="4">
-        <v>6.2039999999999998E-2</v>
-      </c>
-      <c r="J7" s="4">
-        <v>6.2050000000000001E-2</v>
-      </c>
-      <c r="K7" s="4">
-        <v>6.2019999999999999E-2</v>
-      </c>
-      <c r="L7" s="4">
-        <v>6.2010000000000003E-2</v>
-      </c>
-      <c r="M7" s="4">
-        <f t="shared" si="0"/>
-        <v>6.2027999999999993E-2</v>
-      </c>
-      <c r="N7" s="5">
-        <f t="shared" si="1"/>
-        <v>1.6431676725154527E-5</v>
-      </c>
-    </row>
-    <row r="8" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E8" s="1">
-        <v>7</v>
-      </c>
-      <c r="F8" s="2">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="4">
-        <v>6.1800000000000001E-2</v>
-      </c>
-      <c r="I8" s="4">
-        <v>6.1830000000000003E-2</v>
-      </c>
-      <c r="J8" s="4">
-        <v>6.1830000000000003E-2</v>
-      </c>
-      <c r="K8" s="4">
-        <v>6.1809999999999997E-2</v>
-      </c>
-      <c r="L8" s="4">
-        <v>6.1789999999999998E-2</v>
-      </c>
-      <c r="M8" s="4">
-        <f t="shared" si="0"/>
-        <v>6.1811999999999999E-2</v>
-      </c>
-      <c r="N8" s="5">
-        <f t="shared" si="1"/>
-        <v>1.7888543820000498E-5</v>
-      </c>
-    </row>
-    <row r="9" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E9" s="12">
-        <v>6</v>
-      </c>
-      <c r="F9" s="2">
-        <v>4</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="4">
-        <v>7.0930000000000007E-2</v>
-      </c>
-      <c r="I9" s="4">
-        <v>7.0959999999999995E-2</v>
-      </c>
-      <c r="J9" s="4">
-        <v>9.2480000000000007E-2</v>
-      </c>
-      <c r="K9" s="4">
-        <v>9.2509999999999995E-2</v>
-      </c>
-      <c r="L9" s="4">
-        <v>9.2450000000000004E-2</v>
-      </c>
-      <c r="M9" s="4">
-        <f t="shared" si="0"/>
-        <v>8.3865999999999996E-2</v>
-      </c>
-      <c r="N9" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1795229120284191E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E10" s="1">
-        <v>5</v>
-      </c>
-      <c r="F10" s="2">
-        <v>5</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="4">
-        <v>0.1182</v>
-      </c>
-      <c r="I10" s="4">
-        <v>9.0789999999999996E-2</v>
-      </c>
-      <c r="J10" s="4">
-        <v>9.0859999999999996E-2</v>
-      </c>
-      <c r="K10" s="4">
-        <v>9.0840000000000004E-2</v>
-      </c>
-      <c r="L10" s="4">
-        <v>0.1171</v>
-      </c>
-      <c r="M10" s="4">
-        <f t="shared" si="0"/>
-        <v>0.101558</v>
-      </c>
-      <c r="N10" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4695088295073395E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E11" s="12">
-        <v>4</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="4">
-        <v>0.1331</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0.13339999999999999</v>
-      </c>
-      <c r="J11" s="4">
-        <v>0.1331</v>
-      </c>
-      <c r="K11" s="4">
-        <v>0.1017</v>
-      </c>
-      <c r="L11" s="4">
-        <v>0.1285</v>
-      </c>
-      <c r="M11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.12595999999999999</v>
-      </c>
-      <c r="N11" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3714153273170019E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E12" s="1">
-        <v>3</v>
-      </c>
-      <c r="F12" s="2">
-        <v>7</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="4">
-        <v>0.1414</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="J12" s="4">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="K12" s="4">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="L12" s="4">
-        <v>0.14119999999999999</v>
-      </c>
-      <c r="M12" s="4">
-        <f t="shared" si="0"/>
-        <v>0.13498000000000002</v>
-      </c>
-      <c r="N12" s="5">
-        <f t="shared" si="1"/>
-        <v>1.4413257785802625E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E13" s="12">
-        <v>2</v>
-      </c>
-      <c r="F13" s="2">
-        <v>8</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.23319999999999999</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0.2417</v>
-      </c>
-      <c r="J13" s="4">
-        <v>0.23960000000000001</v>
-      </c>
-      <c r="K13" s="4">
-        <v>0.25169999999999998</v>
-      </c>
-      <c r="L13" s="4">
-        <v>0.26369999999999999</v>
-      </c>
-      <c r="M13" s="4">
-        <f t="shared" si="0"/>
-        <v>0.24598</v>
-      </c>
-      <c r="N13" s="5">
-        <f t="shared" si="1"/>
-        <v>1.192757309765905E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="2">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="4">
-        <v>0.49759999999999999</v>
-      </c>
-      <c r="I14" s="4">
-        <v>0.47670000000000001</v>
-      </c>
-      <c r="J14" s="4">
-        <v>0.4743</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0.49170000000000003</v>
-      </c>
-      <c r="L14" s="4">
-        <v>0.4738</v>
-      </c>
-      <c r="M14" s="4">
-        <f t="shared" si="0"/>
-        <v>0.48281999999999997</v>
-      </c>
-      <c r="N14" s="5">
-        <f t="shared" si="1"/>
-        <v>1.1053370526676466E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E15" s="12">
-        <v>0</v>
-      </c>
-      <c r="F15" s="2">
-        <v>10</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="4">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1.046</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="K15" s="4">
-        <v>1.0189999999999999</v>
-      </c>
-      <c r="L15" s="4">
-        <v>1.018</v>
-      </c>
-      <c r="M15" s="4">
-        <f t="shared" si="0"/>
-        <v>1.0224</v>
-      </c>
-      <c r="N15" s="5">
-        <f t="shared" si="1"/>
-        <v>1.3575713609236206E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E16" s="6"/>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E17" s="6"/>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E18" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J18" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L18" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="N18" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E19" s="12">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2">
-        <v>0</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0.1246</v>
-      </c>
-      <c r="I19" s="13">
-        <v>0.1242</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0.124</v>
-      </c>
-      <c r="K19" s="13">
-        <v>0.125</v>
-      </c>
-      <c r="L19" s="13">
-        <v>0.124</v>
-      </c>
-      <c r="M19" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>0.12436</v>
-      </c>
-      <c r="N19" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>4.3358966777357625E-4</v>
-      </c>
-    </row>
-    <row r="20" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E20" s="1">
-        <v>9</v>
-      </c>
-      <c r="F20" s="2">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" s="13">
-        <v>9.8400000000000001E-2</v>
-      </c>
-      <c r="I20" s="13">
-        <v>9.8419999999999994E-2</v>
-      </c>
-      <c r="J20" s="13">
-        <v>9.6339999999999995E-2</v>
-      </c>
-      <c r="K20" s="13">
-        <v>9.8419999999999994E-2</v>
-      </c>
-      <c r="L20" s="13">
-        <v>9.8280000000000006E-2</v>
-      </c>
-      <c r="M20" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>9.797199999999999E-2</v>
-      </c>
-      <c r="N20" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>9.141772257062644E-4</v>
-      </c>
-    </row>
-    <row r="21" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E21" s="12">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="13">
-        <v>7.6730000000000007E-2</v>
-      </c>
-      <c r="I21" s="13">
-        <v>8.1839999999999996E-2</v>
-      </c>
-      <c r="J21" s="13">
-        <v>8.1850000000000006E-2</v>
-      </c>
-      <c r="K21" s="13">
-        <v>6.2030000000000002E-2</v>
-      </c>
-      <c r="L21" s="13">
-        <v>8.1839999999999996E-2</v>
-      </c>
-      <c r="M21" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>7.685800000000001E-2</v>
-      </c>
-      <c r="N21" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>8.5797243545465939E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E22" s="1">
-        <v>7</v>
-      </c>
-      <c r="F22" s="2">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H22" s="13">
-        <v>8.165E-2</v>
-      </c>
-      <c r="I22" s="13">
-        <v>8.1629999999999994E-2</v>
-      </c>
-      <c r="J22" s="13">
-        <v>8.1610000000000002E-2</v>
-      </c>
-      <c r="K22" s="13">
-        <v>6.1830000000000003E-2</v>
-      </c>
-      <c r="L22" s="13">
-        <v>6.1850000000000002E-2</v>
-      </c>
-      <c r="M22" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>7.3714000000000002E-2</v>
-      </c>
-      <c r="N22" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>1.0839440944993449E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E23" s="12">
-        <v>6</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="13">
-        <v>9.1939999999999994E-2</v>
-      </c>
-      <c r="I23" s="13">
-        <v>9.2509999999999995E-2</v>
-      </c>
-      <c r="J23" s="13">
-        <v>9.2509999999999995E-2</v>
-      </c>
-      <c r="K23" s="13">
-        <v>7.0940000000000003E-2</v>
-      </c>
-      <c r="L23" s="13">
-        <v>9.2350000000000002E-2</v>
-      </c>
-      <c r="M23" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>8.8049999999999989E-2</v>
-      </c>
-      <c r="N23" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>9.5676198712114375E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E24" s="1">
-        <v>5</v>
-      </c>
-      <c r="F24" s="2">
-        <v>5</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H24" s="13">
-        <v>0.1182</v>
-      </c>
-      <c r="I24" s="13">
-        <v>0.11119999999999999</v>
-      </c>
-      <c r="J24" s="13">
-        <v>9.0789999999999996E-2</v>
-      </c>
-      <c r="K24" s="13">
-        <v>0.1182</v>
-      </c>
-      <c r="L24" s="13">
-        <v>0.10879999999999999</v>
-      </c>
-      <c r="M24" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>0.10943799999999999</v>
-      </c>
-      <c r="N24" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>1.1233931635896669E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E25" s="12">
-        <v>4</v>
-      </c>
-      <c r="F25" s="2">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H25" s="13">
-        <v>0.12509999999999999</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0.1331</v>
-      </c>
-      <c r="J25" s="13">
-        <v>0.1084</v>
-      </c>
-      <c r="K25" s="13">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0.12839999999999999</v>
-      </c>
-      <c r="M25" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>0.12559999999999999</v>
-      </c>
-      <c r="N25" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>1.0185038046075234E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E26" s="1">
-        <v>3</v>
-      </c>
-      <c r="F26" s="2">
-        <v>7</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H26" s="13">
-        <v>0.14130000000000001</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0.1416</v>
-      </c>
-      <c r="J26" s="13">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0.10920000000000001</v>
-      </c>
-      <c r="L26" s="13">
-        <v>0.1389</v>
-      </c>
-      <c r="M26" s="4">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>0.13436000000000001</v>
-      </c>
-      <c r="N26" s="5">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>1.4104006522970697E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E27" s="12">
-        <v>2</v>
-      </c>
-      <c r="F27" s="2">
-        <v>8</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4" t="e">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N27" s="5" t="e">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="28" spans="5:14" x14ac:dyDescent="0.3">
-      <c r="E28" s="1">
-        <v>1</v>
-      </c>
-      <c r="F28" s="2">
-        <v>9</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4" t="e">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N28" s="5" t="e">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="29" spans="5:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="12">
-        <v>0</v>
-      </c>
-      <c r="F29" s="2">
-        <v>10</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="4" t="e">
-        <f>AVERAGE(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N29" s="5" t="e">
-        <f>STDEV(Tabela7[[#This Row],[1º ]:[5º]])</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E3:N3"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -13721,36 +12849,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13773,9 +12875,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
+++ b/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8FD464C-3DDD-4BD6-B0C2-9AAD3D9DDD76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361AF54-42EA-4C3F-AABC-3FB942A53E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -653,6 +653,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -665,32 +677,307 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="96">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -946,302 +1233,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2531,7 +2522,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2610,7 +2601,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2823,7 +2814,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3010,7 +3001,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3070,7 +3061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3111,7 +3102,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3159,7 +3150,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3247,7 +3238,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3349,7 +3340,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3562,7 +3553,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3749,7 +3740,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3810,7 +3801,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3851,7 +3842,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3899,7 +3890,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3951,7 +3942,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Varia "Block Column"</a:t>
+              <a:t>"Block Column" variation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3987,7 +3978,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4072,6 +4063,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4097,7 +4089,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4222,10 +4214,71 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>(griddim x, griddim y, blockdim x, blockdim y)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.32486671440764364"/>
+              <c:y val="0.91077184796344912"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="0"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4255,7 +4308,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4268,7 +4321,7 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
           <c:min val="5.000000000000001E-2"/>
@@ -4289,6 +4342,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPU</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4316,7 +4427,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4375,7 +4486,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4427,7 +4538,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Varia "Grid Column"</a:t>
+              <a:t>"Grid Column" variation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4463,7 +4574,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4503,8 +4614,8 @@
             </a:effectLst>
           </c:spPr>
           <c:marker>
-            <c:symbol val="diamond"/>
-            <c:size val="10"/>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
             <c:spPr>
               <a:gradFill rotWithShape="1">
                 <a:gsLst>
@@ -4548,6 +4659,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -4573,7 +4685,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4664,8 +4776,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -4697,10 +4810,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(griddim x, griddim y, blockdim x, blockdim y)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -4730,7 +4899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4743,7 +4912,7 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
           <c:min val="5.000000000000001E-2"/>
@@ -4764,6 +4933,64 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>gpu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -4791,7 +5018,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4850,7 +5077,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4902,7 +5129,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Varia "Block Row"</a:t>
+              <a:t>"Block Row" variation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4938,7 +5165,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5000,6 +5227,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5025,7 +5253,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5079,7 +5307,7 @@
             <c:numRef>
               <c:f>Tudo!$K$51:$K$54</c:f>
               <c:numCache>
-                <c:formatCode>0\.0000E+00</c:formatCode>
+                <c:formatCode>0.0000E+00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>8.1566E-2</c:v>
@@ -5136,10 +5364,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(griddim x, griddim y, blockdim x, blockdim y)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5169,7 +5453,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -5182,7 +5466,7 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
           <c:min val="1.0000000000000002E-2"/>
@@ -5203,7 +5487,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="0\.0000E+00" sourceLinked="1"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>gpu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> execution time (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5230,7 +5572,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -5283,7 +5625,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5335,7 +5677,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Media Varia "Grid Row"</a:t>
+              <a:t>"Grid Row" variation</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5371,7 +5713,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5433,6 +5775,7 @@
             </c:spPr>
           </c:marker>
           <c:dLbls>
+            <c:numFmt formatCode="0.00E+00" sourceLinked="0"/>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -5458,7 +5801,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="pt-PT"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5594,10 +5937,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" cap="all" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>(griddim x, griddim y, blockdim x, blockdim y)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="high"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
@@ -5627,7 +6026,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -5640,7 +6039,7 @@
       <c:valAx>
         <c:axId val="388859928"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="2"/>
           <c:orientation val="minMax"/>
           <c:max val="1.5"/>
           <c:min val="1.0000000000000002E-2"/>
@@ -5661,6 +6060,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>gpu execution time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.0000E+00" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
@@ -5688,7 +6140,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -5741,7 +6193,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9049,13 +9501,13 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>285443</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>105640</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>426028</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>112846</xdr:rowOff>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9129,9 +9581,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>415983</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>183536</xdr:rowOff>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9163,13 +9615,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>59661</xdr:colOff>
       <xdr:row>52</xdr:row>
-      <xdr:rowOff>33401</xdr:rowOff>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>200246</xdr:colOff>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>65</xdr:row>
-      <xdr:rowOff>22615</xdr:rowOff>
+      <xdr:rowOff>106681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9335,25 +9787,25 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B50:M54" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B50:M54" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B50:M54" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{F74C00EB-FC87-4815-BD28-90719C9D3C61}" name="gridDimX" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{B4331134-F346-495D-8964-98DE3D9CE04D}" name="blockDimX2" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5FA1AEB0-A017-430A-9E1F-62903E2AF513}" name="blockDimY" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{4F91BE4A-CEC4-4124-A51B-FB15A3511644}" name="Cuda Kernel" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{24600B71-B055-4ADA-BABB-8E2953774353}" name="1º " dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{44BD8EF7-1CED-4C50-A694-D58009DA34C5}" name="2º" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{FCEF5D46-EF2D-4E67-AFAA-F85EB0A89FAE}" name="3º" dataDxfId="19"/>
+    <tableColumn id="8" xr3:uid="{B78108B0-5606-4EE2-99BF-2DE7CEB79687}" name="4º" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{E750F501-52F2-4866-8EE4-83E2D37E9BD3}" name="5º" dataDxfId="17"/>
+    <tableColumn id="10" xr3:uid="{FB8EBC34-02A1-4B67-A16E-B9AE8BDCEAF1}" name="Media" dataDxfId="16">
       <calculatedColumnFormula>AVERAGE(F51:J51)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{74FE1162-B0E8-47B0-999F-D3F73408310B}" name="Desvio Padrao" dataDxfId="15">
       <calculatedColumnFormula>STDEV(F51:J51)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="0">
+    <tableColumn id="12" xr3:uid="{7B668557-A3C5-46A3-A1AE-B3D0572CEAC9}" name="Coef" dataDxfId="14">
       <calculatedColumnFormula>Tabela19[[#This Row],[Media]]/Tabela19[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9362,25 +9814,25 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B58:M66" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B58:M66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B58:M66" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="21"/>
-    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="19"/>
-    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="17"/>
-    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{5A8C6BE7-EA27-413A-A98F-747BB16534ED}" name="gridDimX" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{11103D20-3E1F-4C3E-98B9-51996439D6E0}" name="gridDimY" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{70D05024-75FB-41A0-8A93-88C75820EAED}" name="blockDimX" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{2FE14C0B-2A34-44C0-850D-33BD167EFC36}" name="Cuda Kernel" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{CC63588B-8AF7-4A16-90E0-3DE47EF87D59}" name="1º " dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{42901B77-0EA7-4EA4-8E0F-3D7183078B80}" name="2º" dataDxfId="6"/>
+    <tableColumn id="7" xr3:uid="{8255EED9-5C96-44CF-B2CA-FECB3C42236A}" name="3º" dataDxfId="5"/>
+    <tableColumn id="8" xr3:uid="{B9AFA4F2-E217-4A7F-8CAF-6DF52C1DCF88}" name="4º" dataDxfId="4"/>
+    <tableColumn id="9" xr3:uid="{142C8679-3303-4339-A319-2FDD6A151AA6}" name="5º" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{9C66C7D3-F551-46C7-807A-E96D7B24F0CB}" name="Media" dataDxfId="2">
       <calculatedColumnFormula>AVERAGE(F59:J59)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="15">
+    <tableColumn id="11" xr3:uid="{5D503643-967F-44FB-92A2-2560EA922640}" name="Desvio Padrao" dataDxfId="1">
       <calculatedColumnFormula>STDEV(F59:J59)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="14">
+    <tableColumn id="12" xr3:uid="{6FFB1603-AF30-4130-A858-4F07DC4B2CC6}" name="Coef" dataDxfId="0">
       <calculatedColumnFormula>Tabela1310[[#This Row],[Media]]/Tabela1310[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9653,8 +10105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Z69" sqref="Z69"/>
+    <sheetView tabSelected="1" topLeftCell="N50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9679,20 +10131,20 @@
       <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="48"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="52"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -10594,8 +11046,8 @@
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="52"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
@@ -10610,35 +11062,35 @@
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="53" t="s">
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="54">
+      <c r="F24" s="47">
         <v>9.4459999999999997</v>
       </c>
-      <c r="G24" s="54">
+      <c r="G24" s="47">
         <v>9.4540000000000006</v>
       </c>
-      <c r="H24" s="54">
+      <c r="H24" s="47">
         <v>9.3810000000000002</v>
       </c>
-      <c r="I24" s="54">
+      <c r="I24" s="47">
         <v>9.5470000000000006</v>
       </c>
-      <c r="J24" s="54">
+      <c r="J24" s="47">
         <v>9.4700000000000006</v>
       </c>
-      <c r="K24" s="55">
+      <c r="K24" s="48">
         <f>AVERAGE(F24:J24)</f>
         <v>9.4596</v>
       </c>
-      <c r="L24" s="55">
+      <c r="L24" s="48">
         <f>AVERAGE(G24:K24)</f>
         <v>9.4623200000000018</v>
       </c>
-      <c r="M24" s="56">
+      <c r="M24" s="49">
         <f>K24/L24</f>
         <v>0.99971254406953036</v>
       </c>
@@ -10968,20 +11420,20 @@
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="48"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="52"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -11582,11 +12034,11 @@
         <v>8.1570000000000004E-2</v>
       </c>
       <c r="K51" s="35">
-        <f t="shared" ref="K51:K56" si="15">AVERAGE(F51:J51)</f>
+        <f t="shared" ref="K51:K54" si="15">AVERAGE(F51:J51)</f>
         <v>8.1566E-2</v>
       </c>
       <c r="L51" s="35">
-        <f t="shared" ref="L51:L56" si="16">STDEV(F51:J51)</f>
+        <f t="shared" ref="L51:L54" si="16">STDEV(F51:J51)</f>
         <v>3.3615472627945877E-5</v>
       </c>
       <c r="M51" s="36">
@@ -11729,48 +12181,48 @@
     <row r="55" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="45"/>
       <c r="B55" s="2"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="52"/>
+      <c r="C55" s="1"/>
+      <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
-      <c r="K55" s="50"/>
-      <c r="L55" s="50"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
       <c r="M55" s="5"/>
     </row>
     <row r="56" spans="1:13" ht="27.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="45"/>
       <c r="B56" s="6"/>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="46" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="54">
+      <c r="F56" s="47">
         <v>0.62219999999999998</v>
       </c>
-      <c r="G56" s="54">
+      <c r="G56" s="47">
         <v>0.62529999999999997</v>
       </c>
-      <c r="H56" s="54">
+      <c r="H56" s="47">
         <v>0.62180000000000002</v>
       </c>
-      <c r="I56" s="54">
+      <c r="I56" s="47">
         <v>0.63719999999999999</v>
       </c>
-      <c r="J56" s="54">
+      <c r="J56" s="47">
         <v>0.62209999999999999</v>
       </c>
-      <c r="K56" s="55">
+      <c r="K56" s="48">
         <f>AVERAGE(F56:J56)</f>
         <v>0.62572000000000005</v>
       </c>
-      <c r="L56" s="55">
+      <c r="L56" s="48">
         <f>AVERAGE(G56:K56)</f>
         <v>0.62642400000000009</v>
       </c>
-      <c r="M56" s="56">
+      <c r="M56" s="49">
         <f>K56/L56</f>
         <v>0.99887616055578965</v>
       </c>
@@ -12172,10 +12624,10 @@
       </c>
     </row>
     <row r="98" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C98" s="49" t="s">
+      <c r="C98" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="D98" s="49"/>
+      <c r="D98" s="53"/>
     </row>
     <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="11" t="s">
@@ -12606,21 +13058,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -12849,10 +13286,36 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -12875,20 +13338,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
+++ b/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\victm\OneDrive\Ambiente de Trabalho\UNI\AAD\projetoAAD\proj2AAD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6361AF54-42EA-4C3F-AABC-3FB942A53E2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1DCFE-5322-44B0-9478-BB21314EB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="68">
   <si>
     <t>Column</t>
   </si>
@@ -110,39 +110,6 @@
     <t>gridDimY</t>
   </si>
   <si>
-    <t>&lt;&lt;&lt;(1,1024,1),(1,1,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,512,1),(1,2,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,256,1),(1,4,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,128,1),(1,8,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,64,1),(1,16,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,32,1),(1,32,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,16,1),(1,64,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,8,1),(1,128,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,4,1),(1,256,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,2,1),(1,512,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
-    <t>&lt;&lt;&lt;(1,1,1),(1,1024,1)&gt;&gt;&gt;</t>
-  </si>
-  <si>
     <t>blockDimX2</t>
   </si>
   <si>
@@ -156,9 +123,6 @@
   </si>
   <si>
     <t>Linha</t>
-  </si>
-  <si>
-    <t>Não ligues à tabela de baixo</t>
   </si>
   <si>
     <t>Min</t>
@@ -520,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -674,14 +638,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="96">
+  <dxfs count="84">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2072,175 +2046,6 @@
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="0.0000E+00"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -2522,7 +2327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2601,7 +2406,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2814,7 +2619,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3001,7 +2806,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3061,7 +2866,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3102,7 +2907,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3150,7 +2955,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3238,7 +3043,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3340,7 +3145,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3553,7 +3358,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -3740,7 +3545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -3801,7 +3606,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -3842,7 +3647,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3890,7 +3695,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3978,7 +3783,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4089,7 +3894,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4271,7 +4076,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4308,7 +4113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4396,7 +4201,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4427,7 +4232,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -4486,7 +4291,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4574,7 +4379,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4685,7 +4490,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -4862,7 +4667,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4899,7 +4704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -4987,7 +4792,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5018,7 +4823,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -5077,7 +4882,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5165,7 +4970,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5253,7 +5058,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5416,7 +5221,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5453,7 +5258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -5541,7 +5346,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5572,7 +5377,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -5625,7 +5430,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5713,7 +5518,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5801,7 +5606,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="pt-PT"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -5989,7 +5794,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6026,7 +5831,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859928"/>
@@ -6109,7 +5914,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6140,7 +5945,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="388859272"/>
@@ -6193,7 +5998,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9652,27 +9457,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}" name="Tabela4" displayName="Tabela4" ref="B3:M14" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="B3:M14" xr:uid="{C74EBD76-2F64-4221-A5A3-4D464FC5AECB}"/>
   <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="90"/>
-    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="89"/>
-    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="88"/>
-    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="87"/>
-    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="86"/>
-    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="85">
+    <tableColumn id="1" xr3:uid="{A4FB5ABB-A987-4CA2-B11A-C8B2C50322A2}" name="gridDimX" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{3876FD4E-04AA-4F68-B1F5-7CB98751491F}" name="blockDimX" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{6B3C28D5-159B-4BAA-8B6A-7B2D5B99FFF9}" name="Cuda Kernel" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{FA98D974-7A36-4234-AAFA-1D60412A6199}" name="1º " dataDxfId="78"/>
+    <tableColumn id="5" xr3:uid="{D6494B06-A91B-4055-920C-2BA070345A57}" name="2º" dataDxfId="77"/>
+    <tableColumn id="6" xr3:uid="{3E319409-4F31-446E-84F7-DDC5D5D0B016}" name="3º" dataDxfId="76"/>
+    <tableColumn id="7" xr3:uid="{2D2FC63D-5D57-4D44-9590-D45C0573E388}" name="4º" dataDxfId="75"/>
+    <tableColumn id="8" xr3:uid="{B5013285-D899-4EE0-B9C1-FB2FA691672C}" name="5º" dataDxfId="74"/>
+    <tableColumn id="9" xr3:uid="{0B471454-963B-4030-90BE-C33AC2C7C5D8}" name="Media" dataDxfId="73">
       <calculatedColumnFormula>AVERAGE(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="84">
+    <tableColumn id="10" xr3:uid="{D7FE7045-EE1F-4D54-B2F4-26B2C0CF0E29}" name="Desvio Padrao" dataDxfId="72">
       <calculatedColumnFormula>STDEV(E4:I4)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="83">
+    <tableColumn id="11" xr3:uid="{26791600-D0E6-4339-BB36-441C5D26FD18}" name="Coef" dataDxfId="71">
       <calculatedColumnFormula>Tabela4[[#This Row],[Media]]/Tabela4[[#This Row],[Desvio Padrao]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="82">
+    <tableColumn id="12" xr3:uid="{824E85EC-7E92-4CF0-BB44-5B38407A765D}" name="Teorica" dataDxfId="70">
       <calculatedColumnFormula>AVERAGE(H4:L4)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9681,29 +9486,6 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}" name="Tabela5" displayName="Tabela5" ref="C100:L111" totalsRowShown="0" headerRowDxfId="81" dataDxfId="80">
-  <autoFilter ref="C100:L111" xr:uid="{DC14E98F-30DC-4A1B-8D50-0724132F1414}"/>
-  <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{38E84C7C-5593-47A0-B9FE-97ED10C29DCA}" name="gridDimY" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{940C2EDA-81D0-4130-BEF9-A829F5C414D2}" name="blockDimY" dataDxfId="78"/>
-    <tableColumn id="3" xr3:uid="{874CBB69-F465-41D5-B91B-D1C7B9BA9206}" name="Cuda Kernel" dataDxfId="77"/>
-    <tableColumn id="4" xr3:uid="{74A2729D-E2F0-4244-A880-E693541D4AF9}" name="1º " dataDxfId="76"/>
-    <tableColumn id="5" xr3:uid="{6A3ED035-4D76-47E0-9DC8-66DB9C6123C6}" name="2º" dataDxfId="75"/>
-    <tableColumn id="6" xr3:uid="{13CEAE3D-1169-4B60-AD8C-648131971D32}" name="3º" dataDxfId="74"/>
-    <tableColumn id="7" xr3:uid="{4692D76D-DC60-4F85-BAC0-9C812CE8951A}" name="4º" dataDxfId="73"/>
-    <tableColumn id="8" xr3:uid="{DAC5E63F-DC48-4399-8459-18213A8259B4}" name="5º" dataDxfId="72"/>
-    <tableColumn id="9" xr3:uid="{705BFBC0-7739-4CB3-BC01-4A19BF93EDF7}" name="Media" dataDxfId="71">
-      <calculatedColumnFormula>AVERAGE(F101:J101)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{0A879FFD-5E80-429D-A497-5245B8D8C9E9}" name="Desvio Padrao" dataDxfId="70">
-      <calculatedColumnFormula>STDEV(F101:J101)</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}" name="Tabela1" displayName="Tabela1" ref="B16:M22" totalsRowShown="0" headerRowDxfId="69" dataDxfId="68">
   <autoFilter ref="B16:M22" xr:uid="{74ED20E1-E8E4-4B3D-A14C-5E1F6953877E}"/>
   <tableColumns count="12">
@@ -9730,7 +9512,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}" name="Tabela13" displayName="Tabela13" ref="B26:M32" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="B26:M32" xr:uid="{2F53E0B9-0593-4C1C-B2A0-1837C1B5A266}"/>
   <tableColumns count="12">
@@ -9757,7 +9539,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}" name="Tabela44" displayName="Tabela44" ref="B37:M48" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="B37:M48" xr:uid="{03C0836E-B1EE-4D75-99BB-3F36F1FF92FB}"/>
   <tableColumns count="12">
@@ -9786,7 +9568,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}" name="Tabela19" displayName="Tabela19" ref="B50:M54" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
   <autoFilter ref="B50:M54" xr:uid="{82AF8115-A559-4862-BDF8-50BB6853F36E}"/>
   <tableColumns count="12">
@@ -9813,7 +9595,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}" name="Tabela1310" displayName="Tabela1310" ref="B58:M66" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
   <autoFilter ref="B58:M66" xr:uid="{0DF4CF99-5D43-4EB7-8109-3E1E5C20E658}"/>
   <tableColumns count="12">
@@ -10103,10 +9885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P111"/>
+  <dimension ref="A1:P114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10181,10 +9963,10 @@
         <v>2</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M3" s="31" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="P3" s="1"/>
     </row>
@@ -10769,13 +10551,13 @@
         <v>2</v>
       </c>
       <c r="M16" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N16" s="1"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B17" s="26">
         <v>5</v>
@@ -10820,7 +10602,7 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2">
         <v>5</v>
@@ -10832,7 +10614,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F18" s="4">
         <v>0.15989999999999999</v>
@@ -10865,7 +10647,7 @@
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B19" s="2">
         <v>5</v>
@@ -10877,7 +10659,7 @@
         <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F19" s="4">
         <v>0.1608</v>
@@ -10910,7 +10692,7 @@
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B20" s="2">
         <v>5</v>
@@ -10922,7 +10704,7 @@
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="F20" s="4">
         <v>0.16009999999999999</v>
@@ -10955,7 +10737,7 @@
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B21" s="2">
         <v>5</v>
@@ -10967,7 +10749,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F21" s="4">
         <v>0.1714</v>
@@ -11000,7 +10782,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B22" s="2">
         <v>5</v>
@@ -11012,7 +10794,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="F22" s="4">
         <v>0.1983</v>
@@ -11065,7 +10847,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="46" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F24" s="47">
         <v>9.4459999999999997</v>
@@ -11112,7 +10894,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>10</v>
@@ -11139,13 +10921,13 @@
         <v>2</v>
       </c>
       <c r="M26" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="N26" s="1"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="B27" s="26">
         <v>5</v>
@@ -11190,7 +10972,7 @@
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B28" s="27">
         <v>4</v>
@@ -11202,7 +10984,7 @@
         <v>5</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="F28" s="4">
         <v>0.1429</v>
@@ -11235,7 +11017,7 @@
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="B29" s="27">
         <v>3</v>
@@ -11247,7 +11029,7 @@
         <v>5</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F29" s="4">
         <v>0.1429</v>
@@ -11279,7 +11061,7 @@
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="B30" s="27">
         <v>2</v>
@@ -11291,7 +11073,7 @@
         <v>5</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F30" s="4">
         <v>0.14319999999999999</v>
@@ -11323,7 +11105,7 @@
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="B31" s="27">
         <v>1</v>
@@ -11335,7 +11117,7 @@
         <v>5</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F31" s="4">
         <v>0.1431</v>
@@ -11367,7 +11149,7 @@
     </row>
     <row r="32" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="B32" s="28">
         <v>0</v>
@@ -11379,7 +11161,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F32" s="8">
         <v>0.1431</v>
@@ -11421,7 +11203,7 @@
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="50" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -11441,7 +11223,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>10</v>
@@ -11468,10 +11250,10 @@
         <v>2</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="M37" s="31" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
@@ -11604,7 +11386,7 @@
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B41" s="26">
         <v>7</v>
@@ -11969,7 +11751,7 @@
         <v>4</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D50" s="15" t="s">
         <v>22</v>
@@ -11999,12 +11781,12 @@
         <v>2</v>
       </c>
       <c r="M50" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B51" s="26">
         <v>7</v>
@@ -12016,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F51" s="34">
         <v>8.158E-2</v>
@@ -12048,7 +11830,7 @@
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B52" s="2">
         <v>7</v>
@@ -12060,7 +11842,7 @@
         <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F52" s="4">
         <v>8.1839999999999996E-2</v>
@@ -12092,7 +11874,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B53" s="2">
         <v>7</v>
@@ -12104,7 +11886,7 @@
         <v>2</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F53" s="4">
         <v>8.4190000000000001E-2</v>
@@ -12136,7 +11918,7 @@
     </row>
     <row r="54" spans="1:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2">
         <v>7</v>
@@ -12148,7 +11930,7 @@
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="F54" s="4">
         <v>8.1720000000000001E-2</v>
@@ -12197,7 +11979,7 @@
       <c r="A56" s="45"/>
       <c r="B56" s="6"/>
       <c r="E56" s="46" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F56" s="47">
         <v>0.62219999999999998</v>
@@ -12268,12 +12050,12 @@
         <v>2</v>
       </c>
       <c r="M58" s="14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B59" s="26">
         <v>7</v>
@@ -12285,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="E59" s="23" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F59" s="34">
         <v>8.158E-2</v>
@@ -12317,7 +12099,7 @@
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="B60" s="27">
         <v>6</v>
@@ -12329,7 +12111,7 @@
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F60" s="4">
         <v>8.1600000000000006E-2</v>
@@ -12361,7 +12143,7 @@
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="B61" s="27">
         <v>5</v>
@@ -12373,7 +12155,7 @@
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="F61" s="4">
         <v>8.1600000000000006E-2</v>
@@ -12405,7 +12187,7 @@
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" s="45" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B62" s="27">
         <v>4</v>
@@ -12417,7 +12199,7 @@
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="F62" s="4">
         <v>8.1570000000000004E-2</v>
@@ -12449,7 +12231,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="B63" s="27">
         <v>3</v>
@@ -12461,7 +12243,7 @@
         <v>3</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F63" s="4">
         <v>8.1589999999999996E-2</v>
@@ -12493,7 +12275,7 @@
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B64" s="27">
         <v>2</v>
@@ -12505,7 +12287,7 @@
         <v>3</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="F64" s="4">
         <v>8.1559999999999994E-2</v>
@@ -12537,7 +12319,7 @@
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="B65" s="27">
         <v>1</v>
@@ -12549,7 +12331,7 @@
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F65" s="4">
         <v>8.1570000000000004E-2</v>
@@ -12581,7 +12363,7 @@
     </row>
     <row r="66" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A66" s="45" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="B66" s="28">
         <v>0</v>
@@ -12593,7 +12375,7 @@
         <v>3</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="F66" s="8">
         <v>8.1610000000000002E-2</v>
@@ -12623,417 +12405,341 @@
         <v>5160.2046858626136</v>
       </c>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C98" s="53" t="s">
-        <v>40</v>
-      </c>
-      <c r="D98" s="53"/>
+    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B94" s="53"/>
+      <c r="C94" s="53"/>
+      <c r="D94" s="53"/>
+      <c r="E94" s="53"/>
+      <c r="F94" s="53"/>
+      <c r="G94" s="53"/>
+      <c r="H94" s="53"/>
+      <c r="I94" s="53"/>
+      <c r="J94" s="53"/>
+      <c r="K94" s="53"/>
+      <c r="L94" s="53"/>
+      <c r="M94" s="53"/>
+      <c r="N94" s="53"/>
+      <c r="O94" s="53"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C100" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D100" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F100" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H100" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J100" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K100" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L100" s="1" t="s">
-        <v>2</v>
-      </c>
+    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B95" s="53"/>
+      <c r="C95" s="53"/>
+      <c r="D95" s="53"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="53"/>
+      <c r="G95" s="53"/>
+      <c r="H95" s="53"/>
+      <c r="I95" s="53"/>
+      <c r="J95" s="53"/>
+      <c r="K95" s="53"/>
+      <c r="L95" s="53"/>
+      <c r="M95" s="53"/>
+      <c r="N95" s="53"/>
+      <c r="O95" s="53"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C101" s="12">
-        <v>10</v>
-      </c>
-      <c r="D101" s="1">
-        <v>0</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F101" s="4">
-        <v>0.2482</v>
-      </c>
-      <c r="G101" s="4">
-        <v>0.2319</v>
-      </c>
-      <c r="H101" s="4">
-        <v>0.22839999999999999</v>
-      </c>
-      <c r="I101" s="4">
-        <v>0.23219999999999999</v>
-      </c>
-      <c r="J101" s="4">
-        <v>0.23580000000000001</v>
-      </c>
-      <c r="K101" s="4">
-        <f t="shared" ref="K101:K111" si="19">AVERAGE(F101:J101)</f>
-        <v>0.23529999999999998</v>
-      </c>
-      <c r="L101" s="4">
-        <f t="shared" ref="L101:L111" si="20">STDEV(F101:J101)</f>
-        <v>7.6720271115266582E-3</v>
-      </c>
+    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B96" s="53"/>
+      <c r="C96" s="53"/>
+      <c r="D96" s="53"/>
+      <c r="E96" s="53"/>
+      <c r="F96" s="53"/>
+      <c r="G96" s="53"/>
+      <c r="H96" s="53"/>
+      <c r="I96" s="53"/>
+      <c r="J96" s="53"/>
+      <c r="K96" s="53"/>
+      <c r="L96" s="53"/>
+      <c r="M96" s="53"/>
+      <c r="N96" s="53"/>
+      <c r="O96" s="53"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C102" s="1">
-        <v>9</v>
-      </c>
-      <c r="D102" s="1">
-        <v>1</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" s="4">
-        <v>0.2099</v>
-      </c>
-      <c r="G102" s="4">
-        <v>0.2074</v>
-      </c>
-      <c r="H102" s="4">
-        <v>0.2059</v>
-      </c>
-      <c r="I102" s="4">
-        <v>0.20810000000000001</v>
-      </c>
-      <c r="J102" s="4">
-        <v>0.18429999999999999</v>
-      </c>
-      <c r="K102" s="4">
-        <f t="shared" si="19"/>
-        <v>0.20311999999999997</v>
-      </c>
-      <c r="L102" s="4">
-        <f t="shared" si="20"/>
-        <v>1.0618474466701897E-2</v>
-      </c>
+    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B97" s="53"/>
+      <c r="C97" s="53"/>
+      <c r="D97" s="53"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="53"/>
+      <c r="G97" s="53"/>
+      <c r="H97" s="53"/>
+      <c r="I97" s="53"/>
+      <c r="J97" s="53"/>
+      <c r="K97" s="53"/>
+      <c r="L97" s="53"/>
+      <c r="M97" s="53"/>
+      <c r="N97" s="53"/>
+      <c r="O97" s="53"/>
     </row>
-    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C103" s="12">
-        <v>8</v>
-      </c>
-      <c r="D103" s="1">
-        <v>2</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F103" s="4">
-        <v>0.15540000000000001</v>
-      </c>
-      <c r="G103" s="4">
-        <v>0.1525</v>
-      </c>
-      <c r="H103" s="4">
-        <v>0.158</v>
-      </c>
-      <c r="I103" s="4">
-        <v>0.15509999999999999</v>
-      </c>
-      <c r="J103" s="4">
-        <v>0.15490000000000001</v>
-      </c>
-      <c r="K103" s="4">
-        <f t="shared" si="19"/>
-        <v>0.15518000000000001</v>
-      </c>
-      <c r="L103" s="4">
-        <f t="shared" si="20"/>
-        <v>1.9537144110642187E-3</v>
-      </c>
+    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B98" s="53"/>
+      <c r="C98" s="54"/>
+      <c r="D98" s="54"/>
+      <c r="E98" s="53"/>
+      <c r="F98" s="53"/>
+      <c r="G98" s="53"/>
+      <c r="H98" s="53"/>
+      <c r="I98" s="53"/>
+      <c r="J98" s="53"/>
+      <c r="K98" s="53"/>
+      <c r="L98" s="53"/>
+      <c r="M98" s="53"/>
+      <c r="N98" s="53"/>
+      <c r="O98" s="53"/>
     </row>
-    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C104" s="1">
-        <v>7</v>
-      </c>
-      <c r="D104" s="1">
-        <v>3</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F104" s="4">
-        <v>0.13489999999999999</v>
-      </c>
-      <c r="G104" s="4">
-        <v>0.15740000000000001</v>
-      </c>
-      <c r="H104" s="4">
-        <v>0.1348</v>
-      </c>
-      <c r="I104" s="4">
-        <v>0.1346</v>
-      </c>
-      <c r="J104" s="4">
-        <v>0.1565</v>
-      </c>
-      <c r="K104" s="4">
-        <f t="shared" si="19"/>
-        <v>0.14364000000000002</v>
-      </c>
-      <c r="L104" s="4">
-        <f t="shared" si="20"/>
-        <v>1.2154957836208241E-2</v>
-      </c>
+    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B99" s="53"/>
+      <c r="C99" s="53"/>
+      <c r="D99" s="53"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="53"/>
+      <c r="G99" s="53"/>
+      <c r="H99" s="53"/>
+      <c r="I99" s="53"/>
+      <c r="J99" s="53"/>
+      <c r="K99" s="53"/>
+      <c r="L99" s="53"/>
+      <c r="M99" s="53"/>
+      <c r="N99" s="53"/>
+      <c r="O99" s="53"/>
     </row>
-    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C105" s="12">
-        <v>6</v>
-      </c>
-      <c r="D105" s="1">
-        <v>4</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F105" s="4">
-        <v>0.1477</v>
-      </c>
-      <c r="G105" s="4">
-        <v>0.15290000000000001</v>
-      </c>
-      <c r="H105" s="4">
-        <v>0.15559999999999999</v>
-      </c>
-      <c r="I105" s="4">
-        <v>0.15590000000000001</v>
-      </c>
-      <c r="J105" s="4">
-        <v>0.155</v>
-      </c>
-      <c r="K105" s="4">
-        <f t="shared" si="19"/>
-        <v>0.15342</v>
-      </c>
-      <c r="L105" s="4">
-        <f t="shared" si="20"/>
-        <v>3.4054368295418436E-3</v>
-      </c>
+    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B100" s="53"/>
+      <c r="C100" s="55"/>
+      <c r="D100" s="56"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="56"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="56"/>
+      <c r="K100" s="56"/>
+      <c r="L100" s="56"/>
+      <c r="M100" s="53"/>
+      <c r="N100" s="53"/>
+      <c r="O100" s="53"/>
     </row>
-    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C106" s="1">
-        <v>5</v>
-      </c>
-      <c r="D106" s="1">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="F106" s="4">
-        <v>0.11940000000000001</v>
-      </c>
-      <c r="G106" s="4">
-        <v>0.14349999999999999</v>
-      </c>
-      <c r="H106" s="4">
-        <v>0.1196</v>
-      </c>
-      <c r="I106" s="4">
-        <v>0.1429</v>
-      </c>
-      <c r="J106" s="4">
-        <v>0.14280000000000001</v>
-      </c>
-      <c r="K106" s="4">
-        <f t="shared" si="19"/>
-        <v>0.13364000000000001</v>
-      </c>
-      <c r="L106" s="4">
-        <f t="shared" si="20"/>
-        <v>1.2910964332690256E-2</v>
-      </c>
+    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B101" s="53"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="56"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="57"/>
+      <c r="G101" s="57"/>
+      <c r="H101" s="57"/>
+      <c r="I101" s="57"/>
+      <c r="J101" s="57"/>
+      <c r="K101" s="57"/>
+      <c r="L101" s="57"/>
+      <c r="M101" s="53"/>
+      <c r="N101" s="53"/>
+      <c r="O101" s="53"/>
     </row>
-    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C107" s="12">
-        <v>4</v>
-      </c>
-      <c r="D107" s="1">
-        <v>6</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F107" s="4">
-        <v>0.14180000000000001</v>
-      </c>
-      <c r="G107" s="4">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="H107" s="4">
-        <v>0.12509999999999999</v>
-      </c>
-      <c r="I107" s="4">
-        <v>0.12529999999999999</v>
-      </c>
-      <c r="J107" s="4">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="K107" s="4">
-        <f t="shared" si="19"/>
-        <v>0.13189999999999999</v>
-      </c>
-      <c r="L107" s="4">
-        <f t="shared" si="20"/>
-        <v>9.1293482790394224E-3</v>
-      </c>
+    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B102" s="53"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="56"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="57"/>
+      <c r="G102" s="57"/>
+      <c r="H102" s="57"/>
+      <c r="I102" s="57"/>
+      <c r="J102" s="57"/>
+      <c r="K102" s="57"/>
+      <c r="L102" s="57"/>
+      <c r="M102" s="53"/>
+      <c r="N102" s="53"/>
+      <c r="O102" s="53"/>
     </row>
-    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C108" s="1">
-        <v>3</v>
-      </c>
-      <c r="D108" s="1">
-        <v>7</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0.15479999999999999</v>
-      </c>
-      <c r="G108" s="4">
-        <v>0.13039999999999999</v>
-      </c>
-      <c r="H108" s="4">
-        <v>0.13020000000000001</v>
-      </c>
-      <c r="I108" s="4">
-        <v>0.1552</v>
-      </c>
-      <c r="J108" s="4">
-        <v>0.15379999999999999</v>
-      </c>
-      <c r="K108" s="4">
-        <f t="shared" si="19"/>
-        <v>0.14487999999999998</v>
-      </c>
-      <c r="L108" s="4">
-        <f t="shared" si="20"/>
-        <v>1.3319609603888546E-2</v>
-      </c>
+    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B103" s="53"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="56"/>
+      <c r="E103" s="56"/>
+      <c r="F103" s="57"/>
+      <c r="G103" s="57"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+      <c r="K103" s="57"/>
+      <c r="L103" s="57"/>
+      <c r="M103" s="53"/>
+      <c r="N103" s="53"/>
+      <c r="O103" s="53"/>
     </row>
-    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C109" s="12">
-        <v>2</v>
-      </c>
-      <c r="D109" s="1">
-        <v>8</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F109" s="4">
-        <v>0.1588</v>
-      </c>
-      <c r="G109" s="4">
-        <v>0.15390000000000001</v>
-      </c>
-      <c r="H109" s="4">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="I109" s="4">
-        <v>0.15909999999999999</v>
-      </c>
-      <c r="J109" s="4">
-        <v>0.1552</v>
-      </c>
-      <c r="K109" s="4">
-        <f t="shared" si="19"/>
-        <v>0.15722</v>
-      </c>
-      <c r="L109" s="4">
-        <f t="shared" si="20"/>
-        <v>2.4833445189904606E-3</v>
-      </c>
+    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B104" s="53"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="57"/>
+      <c r="H104" s="57"/>
+      <c r="I104" s="57"/>
+      <c r="J104" s="57"/>
+      <c r="K104" s="57"/>
+      <c r="L104" s="57"/>
+      <c r="M104" s="53"/>
+      <c r="N104" s="53"/>
+      <c r="O104" s="53"/>
     </row>
-    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C110" s="1">
-        <v>1</v>
-      </c>
-      <c r="D110" s="1">
-        <v>9</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F110" s="4">
-        <v>0.16159999999999999</v>
-      </c>
-      <c r="G110" s="4">
-        <v>0.16600000000000001</v>
-      </c>
-      <c r="H110" s="4">
-        <v>0.16569999999999999</v>
-      </c>
-      <c r="I110" s="4">
-        <v>0.14080000000000001</v>
-      </c>
-      <c r="J110" s="4">
-        <v>0.16619999999999999</v>
-      </c>
-      <c r="K110" s="4">
-        <f t="shared" si="19"/>
-        <v>0.16006000000000001</v>
-      </c>
-      <c r="L110" s="4">
-        <f t="shared" si="20"/>
-        <v>1.0932886169717486E-2</v>
-      </c>
+    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B105" s="53"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="57"/>
+      <c r="H105" s="57"/>
+      <c r="I105" s="57"/>
+      <c r="J105" s="57"/>
+      <c r="K105" s="57"/>
+      <c r="L105" s="57"/>
+      <c r="M105" s="53"/>
+      <c r="N105" s="53"/>
+      <c r="O105" s="53"/>
     </row>
-    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C111" s="12">
-        <v>0</v>
-      </c>
-      <c r="D111" s="1">
-        <v>10</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F111" s="4">
-        <v>0.16919999999999999</v>
-      </c>
-      <c r="G111" s="4">
-        <v>0.1691</v>
-      </c>
-      <c r="H111" s="4">
-        <v>0.17230000000000001</v>
-      </c>
-      <c r="I111" s="4">
-        <v>0.1741</v>
-      </c>
-      <c r="J111" s="4">
-        <v>0.16880000000000001</v>
-      </c>
-      <c r="K111" s="4">
-        <f t="shared" si="19"/>
-        <v>0.17069999999999999</v>
-      </c>
-      <c r="L111" s="4">
-        <f t="shared" si="20"/>
-        <v>2.3738154940938475E-3</v>
-      </c>
+    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B106" s="53"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="56"/>
+      <c r="E106" s="56"/>
+      <c r="F106" s="57"/>
+      <c r="G106" s="57"/>
+      <c r="H106" s="57"/>
+      <c r="I106" s="57"/>
+      <c r="J106" s="57"/>
+      <c r="K106" s="57"/>
+      <c r="L106" s="57"/>
+      <c r="M106" s="53"/>
+      <c r="N106" s="53"/>
+      <c r="O106" s="53"/>
+    </row>
+    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B107" s="53"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="56"/>
+      <c r="E107" s="56"/>
+      <c r="F107" s="57"/>
+      <c r="G107" s="57"/>
+      <c r="H107" s="57"/>
+      <c r="I107" s="57"/>
+      <c r="J107" s="57"/>
+      <c r="K107" s="57"/>
+      <c r="L107" s="57"/>
+      <c r="M107" s="53"/>
+      <c r="N107" s="53"/>
+      <c r="O107" s="53"/>
+    </row>
+    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B108" s="53"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="56"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="57"/>
+      <c r="G108" s="57"/>
+      <c r="H108" s="57"/>
+      <c r="I108" s="57"/>
+      <c r="J108" s="57"/>
+      <c r="K108" s="57"/>
+      <c r="L108" s="57"/>
+      <c r="M108" s="53"/>
+      <c r="N108" s="53"/>
+      <c r="O108" s="53"/>
+    </row>
+    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B109" s="53"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="56"/>
+      <c r="E109" s="56"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="57"/>
+      <c r="H109" s="57"/>
+      <c r="I109" s="57"/>
+      <c r="J109" s="57"/>
+      <c r="K109" s="57"/>
+      <c r="L109" s="57"/>
+      <c r="M109" s="53"/>
+      <c r="N109" s="53"/>
+      <c r="O109" s="53"/>
+    </row>
+    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B110" s="53"/>
+      <c r="C110" s="56"/>
+      <c r="D110" s="56"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="57"/>
+      <c r="H110" s="57"/>
+      <c r="I110" s="57"/>
+      <c r="J110" s="57"/>
+      <c r="K110" s="57"/>
+      <c r="L110" s="57"/>
+      <c r="M110" s="53"/>
+      <c r="N110" s="53"/>
+      <c r="O110" s="53"/>
+    </row>
+    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B111" s="53"/>
+      <c r="C111" s="56"/>
+      <c r="D111" s="56"/>
+      <c r="E111" s="56"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="57"/>
+      <c r="H111" s="57"/>
+      <c r="I111" s="57"/>
+      <c r="J111" s="57"/>
+      <c r="K111" s="57"/>
+      <c r="L111" s="57"/>
+      <c r="M111" s="53"/>
+      <c r="N111" s="53"/>
+      <c r="O111" s="53"/>
+    </row>
+    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B112" s="53"/>
+      <c r="C112" s="53"/>
+      <c r="D112" s="53"/>
+      <c r="E112" s="53"/>
+      <c r="F112" s="53"/>
+      <c r="G112" s="53"/>
+      <c r="H112" s="53"/>
+      <c r="I112" s="53"/>
+      <c r="J112" s="53"/>
+      <c r="K112" s="53"/>
+      <c r="L112" s="53"/>
+      <c r="M112" s="53"/>
+      <c r="N112" s="53"/>
+      <c r="O112" s="53"/>
+    </row>
+    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B113" s="53"/>
+      <c r="C113" s="53"/>
+      <c r="D113" s="53"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="53"/>
+      <c r="G113" s="53"/>
+      <c r="H113" s="53"/>
+      <c r="I113" s="53"/>
+      <c r="J113" s="53"/>
+      <c r="K113" s="53"/>
+      <c r="L113" s="53"/>
+      <c r="M113" s="53"/>
+      <c r="N113" s="53"/>
+      <c r="O113" s="53"/>
+    </row>
+    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B114" s="53"/>
+      <c r="C114" s="53"/>
+      <c r="D114" s="53"/>
+      <c r="E114" s="53"/>
+      <c r="F114" s="53"/>
+      <c r="G114" s="53"/>
+      <c r="H114" s="53"/>
+      <c r="I114" s="53"/>
+      <c r="J114" s="53"/>
+      <c r="K114" s="53"/>
+      <c r="L114" s="53"/>
+      <c r="M114" s="53"/>
+      <c r="N114" s="53"/>
+      <c r="O114" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -13045,19 +12751,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
-  <tableParts count="7">
+  <tableParts count="6">
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -13286,12 +12997,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13302,6 +13007,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13320,23 +13042,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>

--- a/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
+++ b/proj2AAD/incOrderCudaPontosOutraSolutionVersion1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\repol\Documents\GitHub\projetoAAD\proj2AAD\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45B1DCFE-5322-44B0-9478-BB21314EB7E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999A7C0E-3E4D-4047-B523-BE581E55DA1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tudo" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -629,6 +629,9 @@
     <xf numFmtId="0" fontId="4" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,18 +641,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9885,9 +9878,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P114"/>
+  <dimension ref="A1:P111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AK21" sqref="AK21"/>
     </sheetView>
   </sheetViews>
@@ -9913,20 +9906,20 @@
       <c r="N1" s="30"/>
     </row>
     <row r="2" spans="1:16" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="53"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
@@ -11202,20 +11195,20 @@
     </row>
     <row r="36" spans="1:13" ht="18" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="51"/>
-      <c r="F36" s="51"/>
-      <c r="G36" s="51"/>
-      <c r="H36" s="51"/>
-      <c r="I36" s="51"/>
-      <c r="J36" s="51"/>
-      <c r="K36" s="51"/>
-      <c r="L36" s="51"/>
-      <c r="M36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
@@ -12405,341 +12398,153 @@
         <v>5160.2046858626136</v>
       </c>
     </row>
-    <row r="94" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B94" s="53"/>
-      <c r="C94" s="53"/>
-      <c r="D94" s="53"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="53"/>
-      <c r="G94" s="53"/>
-      <c r="H94" s="53"/>
-      <c r="I94" s="53"/>
-      <c r="J94" s="53"/>
-      <c r="K94" s="53"/>
-      <c r="L94" s="53"/>
-      <c r="M94" s="53"/>
-      <c r="N94" s="53"/>
-      <c r="O94" s="53"/>
-    </row>
-    <row r="95" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B95" s="53"/>
-      <c r="C95" s="53"/>
-      <c r="D95" s="53"/>
-      <c r="E95" s="53"/>
-      <c r="F95" s="53"/>
-      <c r="G95" s="53"/>
-      <c r="H95" s="53"/>
-      <c r="I95" s="53"/>
-      <c r="J95" s="53"/>
-      <c r="K95" s="53"/>
-      <c r="L95" s="53"/>
-      <c r="M95" s="53"/>
-      <c r="N95" s="53"/>
-      <c r="O95" s="53"/>
-    </row>
-    <row r="96" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B96" s="53"/>
-      <c r="C96" s="53"/>
-      <c r="D96" s="53"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="53"/>
-      <c r="G96" s="53"/>
-      <c r="H96" s="53"/>
-      <c r="I96" s="53"/>
-      <c r="J96" s="53"/>
-      <c r="K96" s="53"/>
-      <c r="L96" s="53"/>
-      <c r="M96" s="53"/>
-      <c r="N96" s="53"/>
-      <c r="O96" s="53"/>
-    </row>
-    <row r="97" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B97" s="53"/>
-      <c r="C97" s="53"/>
-      <c r="D97" s="53"/>
-      <c r="E97" s="53"/>
-      <c r="F97" s="53"/>
-      <c r="G97" s="53"/>
-      <c r="H97" s="53"/>
-      <c r="I97" s="53"/>
-      <c r="J97" s="53"/>
-      <c r="K97" s="53"/>
-      <c r="L97" s="53"/>
-      <c r="M97" s="53"/>
-      <c r="N97" s="53"/>
-      <c r="O97" s="53"/>
-    </row>
-    <row r="98" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B98" s="53"/>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="54"/>
       <c r="D98" s="54"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="53"/>
-      <c r="G98" s="53"/>
-      <c r="H98" s="53"/>
-      <c r="I98" s="53"/>
-      <c r="J98" s="53"/>
-      <c r="K98" s="53"/>
-      <c r="L98" s="53"/>
-      <c r="M98" s="53"/>
-      <c r="N98" s="53"/>
-      <c r="O98" s="53"/>
     </row>
-    <row r="99" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B99" s="53"/>
-      <c r="C99" s="53"/>
-      <c r="D99" s="53"/>
-      <c r="E99" s="53"/>
-      <c r="F99" s="53"/>
-      <c r="G99" s="53"/>
-      <c r="H99" s="53"/>
-      <c r="I99" s="53"/>
-      <c r="J99" s="53"/>
-      <c r="K99" s="53"/>
-      <c r="L99" s="53"/>
-      <c r="M99" s="53"/>
-      <c r="N99" s="53"/>
-      <c r="O99" s="53"/>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C100" s="50"/>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="1"/>
+      <c r="G100" s="1"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
     </row>
-    <row r="100" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B100" s="53"/>
-      <c r="C100" s="55"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="56"/>
-      <c r="K100" s="56"/>
-      <c r="L100" s="56"/>
-      <c r="M100" s="53"/>
-      <c r="N100" s="53"/>
-      <c r="O100" s="53"/>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C101" s="1"/>
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
     </row>
-    <row r="101" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B101" s="53"/>
-      <c r="C101" s="56"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="57"/>
-      <c r="G101" s="57"/>
-      <c r="H101" s="57"/>
-      <c r="I101" s="57"/>
-      <c r="J101" s="57"/>
-      <c r="K101" s="57"/>
-      <c r="L101" s="57"/>
-      <c r="M101" s="53"/>
-      <c r="N101" s="53"/>
-      <c r="O101" s="53"/>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
     </row>
-    <row r="102" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B102" s="53"/>
-      <c r="C102" s="56"/>
-      <c r="D102" s="56"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="57"/>
-      <c r="G102" s="57"/>
-      <c r="H102" s="57"/>
-      <c r="I102" s="57"/>
-      <c r="J102" s="57"/>
-      <c r="K102" s="57"/>
-      <c r="L102" s="57"/>
-      <c r="M102" s="53"/>
-      <c r="N102" s="53"/>
-      <c r="O102" s="53"/>
+    <row r="103" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C103" s="1"/>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
     </row>
-    <row r="103" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B103" s="53"/>
-      <c r="C103" s="56"/>
-      <c r="D103" s="56"/>
-      <c r="E103" s="56"/>
-      <c r="F103" s="57"/>
-      <c r="G103" s="57"/>
-      <c r="H103" s="57"/>
-      <c r="I103" s="57"/>
-      <c r="J103" s="57"/>
-      <c r="K103" s="57"/>
-      <c r="L103" s="57"/>
-      <c r="M103" s="53"/>
-      <c r="N103" s="53"/>
-      <c r="O103" s="53"/>
+    <row r="104" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C104" s="1"/>
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
     </row>
-    <row r="104" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B104" s="53"/>
-      <c r="C104" s="56"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="57"/>
-      <c r="G104" s="57"/>
-      <c r="H104" s="57"/>
-      <c r="I104" s="57"/>
-      <c r="J104" s="57"/>
-      <c r="K104" s="57"/>
-      <c r="L104" s="57"/>
-      <c r="M104" s="53"/>
-      <c r="N104" s="53"/>
-      <c r="O104" s="53"/>
+    <row r="105" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C105" s="1"/>
+      <c r="D105" s="1"/>
+      <c r="E105" s="1"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
     </row>
-    <row r="105" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B105" s="53"/>
-      <c r="C105" s="56"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="57"/>
-      <c r="G105" s="57"/>
-      <c r="H105" s="57"/>
-      <c r="I105" s="57"/>
-      <c r="J105" s="57"/>
-      <c r="K105" s="57"/>
-      <c r="L105" s="57"/>
-      <c r="M105" s="53"/>
-      <c r="N105" s="53"/>
-      <c r="O105" s="53"/>
+    <row r="106" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C106" s="1"/>
+      <c r="D106" s="1"/>
+      <c r="E106" s="1"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
     </row>
-    <row r="106" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B106" s="53"/>
-      <c r="C106" s="56"/>
-      <c r="D106" s="56"/>
-      <c r="E106" s="56"/>
-      <c r="F106" s="57"/>
-      <c r="G106" s="57"/>
-      <c r="H106" s="57"/>
-      <c r="I106" s="57"/>
-      <c r="J106" s="57"/>
-      <c r="K106" s="57"/>
-      <c r="L106" s="57"/>
-      <c r="M106" s="53"/>
-      <c r="N106" s="53"/>
-      <c r="O106" s="53"/>
+    <row r="107" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C107" s="1"/>
+      <c r="D107" s="1"/>
+      <c r="E107" s="1"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
     </row>
-    <row r="107" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B107" s="53"/>
-      <c r="C107" s="56"/>
-      <c r="D107" s="56"/>
-      <c r="E107" s="56"/>
-      <c r="F107" s="57"/>
-      <c r="G107" s="57"/>
-      <c r="H107" s="57"/>
-      <c r="I107" s="57"/>
-      <c r="J107" s="57"/>
-      <c r="K107" s="57"/>
-      <c r="L107" s="57"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="53"/>
-      <c r="O107" s="53"/>
+    <row r="108" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
     </row>
-    <row r="108" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B108" s="53"/>
-      <c r="C108" s="56"/>
-      <c r="D108" s="56"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="57"/>
-      <c r="G108" s="57"/>
-      <c r="H108" s="57"/>
-      <c r="I108" s="57"/>
-      <c r="J108" s="57"/>
-      <c r="K108" s="57"/>
-      <c r="L108" s="57"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="53"/>
-      <c r="O108" s="53"/>
+    <row r="109" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
     </row>
-    <row r="109" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B109" s="53"/>
-      <c r="C109" s="56"/>
-      <c r="D109" s="56"/>
-      <c r="E109" s="56"/>
-      <c r="F109" s="57"/>
-      <c r="G109" s="57"/>
-      <c r="H109" s="57"/>
-      <c r="I109" s="57"/>
-      <c r="J109" s="57"/>
-      <c r="K109" s="57"/>
-      <c r="L109" s="57"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="53"/>
-      <c r="O109" s="53"/>
+    <row r="110" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
-    <row r="110" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B110" s="53"/>
-      <c r="C110" s="56"/>
-      <c r="D110" s="56"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="57"/>
-      <c r="G110" s="57"/>
-      <c r="H110" s="57"/>
-      <c r="I110" s="57"/>
-      <c r="J110" s="57"/>
-      <c r="K110" s="57"/>
-      <c r="L110" s="57"/>
-      <c r="M110" s="53"/>
-      <c r="N110" s="53"/>
-      <c r="O110" s="53"/>
-    </row>
-    <row r="111" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B111" s="53"/>
-      <c r="C111" s="56"/>
-      <c r="D111" s="56"/>
-      <c r="E111" s="56"/>
-      <c r="F111" s="57"/>
-      <c r="G111" s="57"/>
-      <c r="H111" s="57"/>
-      <c r="I111" s="57"/>
-      <c r="J111" s="57"/>
-      <c r="K111" s="57"/>
-      <c r="L111" s="57"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="53"/>
-      <c r="O111" s="53"/>
-    </row>
-    <row r="112" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B112" s="53"/>
-      <c r="C112" s="53"/>
-      <c r="D112" s="53"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="53"/>
-      <c r="G112" s="53"/>
-      <c r="H112" s="53"/>
-      <c r="I112" s="53"/>
-      <c r="J112" s="53"/>
-      <c r="K112" s="53"/>
-      <c r="L112" s="53"/>
-      <c r="M112" s="53"/>
-      <c r="N112" s="53"/>
-      <c r="O112" s="53"/>
-    </row>
-    <row r="113" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B113" s="53"/>
-      <c r="C113" s="53"/>
-      <c r="D113" s="53"/>
-      <c r="E113" s="53"/>
-      <c r="F113" s="53"/>
-      <c r="G113" s="53"/>
-      <c r="H113" s="53"/>
-      <c r="I113" s="53"/>
-      <c r="J113" s="53"/>
-      <c r="K113" s="53"/>
-      <c r="L113" s="53"/>
-      <c r="M113" s="53"/>
-      <c r="N113" s="53"/>
-      <c r="O113" s="53"/>
-    </row>
-    <row r="114" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B114" s="53"/>
-      <c r="C114" s="53"/>
-      <c r="D114" s="53"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="53"/>
-      <c r="G114" s="53"/>
-      <c r="H114" s="53"/>
-      <c r="I114" s="53"/>
-      <c r="J114" s="53"/>
-      <c r="K114" s="53"/>
-      <c r="L114" s="53"/>
-      <c r="M114" s="53"/>
-      <c r="N114" s="53"/>
-      <c r="O114" s="53"/>
+    <row r="111" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -12763,12 +12568,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009408D8FBAAC9E2469ABC075BBCCE17D5" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7fcd9349d611db14dbcfc31db94c37a2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="22ce7702-4bdc-428c-9e0c-f044bfee16b4" xmlns:ns4="bb7adc52-52fa-473f-a73f-724527e38f53" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="15e2fd98b298cc6e13d4c215f840f89d" ns3:_="" ns4:_="">
     <xsd:import namespace="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
@@ -12997,6 +12796,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13007,23 +12812,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6F72E1D4-B6F8-485B-85B0-5DDD1EC357FD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13042,6 +12830,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E2DCDD7-8EE0-498D-8C3B-9C675DF4A37B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bb7adc52-52fa-473f-a73f-724527e38f53"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="22ce7702-4bdc-428c-9e0c-f044bfee16b4"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1172BBFC-1E24-4B29-9F1C-41C7C3E62316}">
   <ds:schemaRefs>
